--- a/data_export.xlsx
+++ b/data_export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="88">
   <si>
     <t>Model</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>Net-Zero Scenario</t>
+  </si>
+  <si>
+    <t>Cogeneration Scenario</t>
+  </si>
+  <si>
+    <t>Demand Efficiency Scenario</t>
+  </si>
+  <si>
+    <t>Low Demand Scenario</t>
+  </si>
+  <si>
+    <t>No-Nuclear Scenario</t>
   </si>
   <si>
     <t>CO2 Scenario</t>
@@ -624,14 +636,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="47.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
@@ -694,16 +706,16 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>293.826</v>
@@ -726,16 +738,16 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>4.831633921824</v>
@@ -758,16 +770,16 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>293.363</v>
@@ -790,16 +802,16 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H5">
         <v>5.10690013704</v>
@@ -822,16 +834,16 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>301.963</v>
@@ -854,16 +866,16 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H7">
         <v>4.939373461680001</v>
@@ -886,16 +898,16 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H8">
         <v>301.468</v>
@@ -918,16 +930,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H9">
         <v>4.93035114384</v>
@@ -950,16 +962,16 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H10">
         <v>311.957</v>
@@ -982,16 +994,16 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H11">
         <v>5.369323671360001</v>
@@ -1014,16 +1026,16 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H12">
         <v>310.143</v>
@@ -1046,16 +1058,16 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H13">
         <v>5.32106263368</v>
@@ -1078,16 +1090,16 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H14">
         <v>397.9</v>
@@ -1107,16 +1119,16 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I15">
         <v>1.656</v>
@@ -1136,16 +1148,16 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K16">
         <v>0.135</v>
@@ -1159,16 +1171,16 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H17">
         <v>397.2</v>
@@ -1188,16 +1200,16 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K18">
         <v>0.036</v>
@@ -1211,16 +1223,16 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I19">
         <v>0.5850000000000001</v>
@@ -1237,16 +1249,16 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I20">
         <v>0.261</v>
@@ -1263,16 +1275,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I21">
         <v>0.324</v>
@@ -1289,16 +1301,16 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G22">
         <v>349.81</v>
@@ -1315,16 +1327,16 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G23">
         <v>4.312404</v>
@@ -1341,16 +1353,16 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G24">
         <v>0.167472</v>
@@ -1367,16 +1379,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G25">
         <v>0.018</v>
@@ -1393,16 +1405,16 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G26">
         <v>0.879228</v>
@@ -1419,16 +1431,16 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G27">
         <v>0.544284</v>
@@ -1445,16 +1457,16 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G28">
         <v>1.758456</v>
@@ -1471,16 +1483,16 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G29">
         <v>0.3636</v>
@@ -1497,16 +1509,16 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G30">
         <v>1.46538</v>
@@ -1523,16 +1535,16 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G31">
         <v>0.083736</v>
@@ -1549,16 +1561,16 @@
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G32">
         <v>0.334944</v>
@@ -1575,16 +1587,16 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G33">
         <v>0.293076</v>
@@ -1601,16 +1613,16 @@
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G34">
         <v>1.214172</v>
@@ -1627,16 +1639,16 @@
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G35">
         <v>0.3384</v>
@@ -1653,16 +1665,16 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G36">
         <v>1.0467</v>
@@ -1679,16 +1691,16 @@
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G37">
         <v>0.8373600000000001</v>
@@ -1705,16 +1717,16 @@
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G38">
         <v>0.007200000000000001</v>
@@ -1731,16 +1743,16 @@
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G39">
         <v>1.5826104</v>
@@ -1757,16 +1769,16 @@
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G40">
         <v>0.167472</v>
@@ -1783,16 +1795,16 @@
         <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G41">
         <v>0.9755244000000001</v>
@@ -1809,16 +1821,16 @@
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G42">
         <v>0.0083736</v>
@@ -1835,16 +1847,16 @@
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G43">
         <v>0.0167472</v>
@@ -1861,16 +1873,16 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G44">
         <v>0.083736</v>
@@ -1887,16 +1899,16 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G45">
         <v>0.20934</v>
@@ -1913,16 +1925,16 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H46">
         <v>0.334944</v>
@@ -1936,16 +1948,16 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F47" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G47">
         <v>0.083736</v>
@@ -1962,16 +1974,16 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G48">
         <v>0.020934</v>
@@ -1988,16 +2000,16 @@
         <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G49">
         <v>0.0167472</v>
@@ -2014,16 +2026,16 @@
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G50">
         <v>0.8712000000000001</v>
@@ -2040,16 +2052,16 @@
         <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G51">
         <v>0.2376</v>
@@ -2066,16 +2078,16 @@
         <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F52" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G52">
         <v>0.3852</v>
@@ -2092,16 +2104,16 @@
         <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H53">
         <v>0.1152</v>
@@ -2115,16 +2127,16 @@
         <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G54">
         <v>0.0252</v>
@@ -2141,16 +2153,16 @@
         <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E55" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G55">
         <v>0.2232</v>
@@ -2161,109 +2173,106 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="G56">
+        <v>352.73</v>
       </c>
       <c r="H56">
-        <v>673</v>
-      </c>
-      <c r="I56">
-        <v>1175</v>
+        <v>579.729</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="G57">
+        <v>332.73</v>
       </c>
       <c r="H57">
-        <v>466.9</v>
-      </c>
-      <c r="I57">
-        <v>695</v>
+        <v>516.73</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="G58">
+        <v>328.09</v>
       </c>
       <c r="H58">
-        <v>4.417074</v>
-      </c>
-      <c r="I58">
-        <v>5.8447728</v>
-      </c>
-      <c r="L58">
-        <v>6.866352</v>
+        <v>502.8135</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="G59">
+        <v>355.74</v>
       </c>
       <c r="H59">
-        <v>0.6866352</v>
-      </c>
-      <c r="I59">
-        <v>0.8666676</v>
+        <v>585.76</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2271,28 +2280,25 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H60">
-        <v>0.962964</v>
+        <v>531.67</v>
       </c>
       <c r="I60">
-        <v>1.381644</v>
-      </c>
-      <c r="L60">
-        <v>3.8183616</v>
+        <v>928.25</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2300,22 +2306,25 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="H61">
+        <v>368.851</v>
       </c>
       <c r="I61">
-        <v>1.4109516</v>
+        <v>549.05</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2323,22 +2332,28 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="H62">
+        <v>4.417074</v>
       </c>
       <c r="I62">
-        <v>0.1632852</v>
+        <v>5.8447728</v>
+      </c>
+      <c r="L62">
+        <v>6.866352</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2346,25 +2361,25 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="H63">
+        <v>0.6866352</v>
       </c>
       <c r="I63">
-        <v>0.02736</v>
-      </c>
-      <c r="L63">
-        <v>0.8910000000000001</v>
+        <v>0.8666676</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2372,25 +2387,28 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E64" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H64">
-        <v>1.5198084</v>
+        <v>0.962964</v>
       </c>
       <c r="I64">
-        <v>2.1813228</v>
+        <v>1.381644</v>
+      </c>
+      <c r="L64">
+        <v>3.8183616</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2398,25 +2416,22 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
-      </c>
-      <c r="H65">
-        <v>0.4320000000000001</v>
+        <v>83</v>
       </c>
       <c r="I65">
-        <v>0.6519600000000001</v>
+        <v>1.4109516</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2424,22 +2439,22 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I66">
-        <v>1.904994</v>
+        <v>0.1632852</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2447,22 +2462,25 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E67" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I67">
-        <v>0.293076</v>
+        <v>0.02736</v>
+      </c>
+      <c r="L67">
+        <v>0.8910000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2470,25 +2488,25 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E68" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H68">
-        <v>1.0801944</v>
+        <v>1.5198084</v>
       </c>
       <c r="I68">
-        <v>1.235106</v>
+        <v>2.1813228</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2496,25 +2514,25 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H69">
-        <v>0.21852</v>
+        <v>0.4320000000000001</v>
       </c>
       <c r="I69">
-        <v>0.29916</v>
+        <v>0.6519600000000001</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2522,25 +2540,22 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
-      </c>
-      <c r="H70">
-        <v>0.29016</v>
+        <v>83</v>
       </c>
       <c r="I70">
-        <v>0.4122</v>
+        <v>1.904994</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2548,22 +2563,22 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I71">
-        <v>0.690822</v>
+        <v>0.293076</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2571,25 +2586,25 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H72">
-        <v>1.130436</v>
+        <v>1.0801944</v>
       </c>
       <c r="I72">
-        <v>1.5616764</v>
+        <v>1.235106</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2597,25 +2612,25 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H73">
-        <v>0.00504</v>
+        <v>0.21852</v>
       </c>
       <c r="I73">
-        <v>0.0306</v>
+        <v>0.29916</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -2623,28 +2638,25 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E74" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H74">
-        <v>6.1629696</v>
+        <v>0.29016</v>
       </c>
       <c r="I74">
-        <v>8.331732000000001</v>
-      </c>
-      <c r="L74">
-        <v>10.467</v>
+        <v>0.4122</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -2652,28 +2664,22 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
         <v>54</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
-      </c>
-      <c r="H75">
-        <v>1.6998408</v>
+        <v>83</v>
       </c>
       <c r="I75">
-        <v>2.0054772</v>
-      </c>
-      <c r="L75">
-        <v>0.376812</v>
+        <v>0.690822</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -2681,28 +2687,25 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D76" t="s">
         <v>55</v>
       </c>
       <c r="E76" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F76" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H76">
-        <v>1.6663464</v>
+        <v>1.130436</v>
       </c>
       <c r="I76">
-        <v>1.9971036</v>
-      </c>
-      <c r="L76">
-        <v>1.2267324</v>
+        <v>1.5616764</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -2710,25 +2713,25 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E77" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F77" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="H77">
+        <v>0.00504</v>
       </c>
       <c r="I77">
-        <v>0.334944</v>
-      </c>
-      <c r="L77">
-        <v>3.0689244</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -2736,28 +2739,28 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F78" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H78">
-        <v>1.7668296</v>
+        <v>6.1629696</v>
       </c>
       <c r="I78">
-        <v>2.2943664</v>
+        <v>8.331732000000001</v>
       </c>
       <c r="L78">
-        <v>0.586152</v>
+        <v>10.467</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -2765,28 +2768,28 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E79" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F79" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H79">
-        <v>1.0299528</v>
+        <v>1.6998408</v>
       </c>
       <c r="I79">
-        <v>1.6998408</v>
+        <v>2.0054772</v>
       </c>
       <c r="L79">
-        <v>5.2335</v>
+        <v>0.376812</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -2794,347 +2797,320 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E80" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F80" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H80">
-        <v>1.10412</v>
+        <v>1.6663464</v>
       </c>
       <c r="I80">
-        <v>1.62972</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>1.9971036</v>
+      </c>
+      <c r="L80">
+        <v>1.2267324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E81" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F81" t="s">
-        <v>79</v>
-      </c>
-      <c r="H81">
-        <v>0.63612</v>
+        <v>83</v>
       </c>
       <c r="I81">
-        <v>0.7243200000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>0.334944</v>
+      </c>
+      <c r="L81">
+        <v>3.0689244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E82" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F82" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H82">
-        <v>0.28116</v>
+        <v>1.7668296</v>
       </c>
       <c r="I82">
-        <v>0.3164400000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>2.2943664</v>
+      </c>
+      <c r="L82">
+        <v>0.586152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E83" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="H83">
+        <v>1.0299528</v>
       </c>
       <c r="I83">
-        <v>0.13392</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>1.6998408</v>
+      </c>
+      <c r="L83">
+        <v>5.2335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E84" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F84" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H84">
-        <v>0.05796000000000001</v>
+        <v>1.10412</v>
       </c>
       <c r="I84">
-        <v>0.0738</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>1.62972</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E85" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F85" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H85">
-        <v>0.468</v>
+        <v>0.63612</v>
       </c>
       <c r="I85">
-        <v>0.7714800000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>0.7243200000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E86" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F86" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H86">
-        <v>0.0396</v>
+        <v>0.28116</v>
       </c>
       <c r="I86">
-        <v>0.18792</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>0.3164400000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E87" t="s">
+        <v>82</v>
+      </c>
+      <c r="F87" t="s">
+        <v>83</v>
+      </c>
+      <c r="I87">
+        <v>0.13392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" t="s">
         <v>78</v>
       </c>
-      <c r="F87" t="s">
-        <v>79</v>
-      </c>
-      <c r="H87">
-        <v>0.08928000000000001</v>
-      </c>
-      <c r="I87">
-        <v>0.19332</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" t="s">
-        <v>17</v>
-      </c>
-      <c r="B88" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" t="s">
-        <v>38</v>
-      </c>
       <c r="E88" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F88" t="s">
-        <v>82</v>
-      </c>
-      <c r="G88">
-        <v>3.491791200000001</v>
+        <v>83</v>
       </c>
       <c r="H88">
-        <v>5.057654400000001</v>
+        <v>0.05796000000000001</v>
       </c>
       <c r="I88">
-        <v>7.661844</v>
-      </c>
-      <c r="J88">
-        <v>11.7146664</v>
-      </c>
-      <c r="K88">
-        <v>17.9864928</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>0.0738</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D89" t="s">
         <v>39</v>
       </c>
       <c r="E89" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F89" t="s">
-        <v>82</v>
-      </c>
-      <c r="G89">
-        <v>0.2135268</v>
+        <v>83</v>
       </c>
       <c r="H89">
-        <v>0.3181968</v>
+        <v>0.468</v>
       </c>
       <c r="I89">
-        <v>0.4940424</v>
-      </c>
-      <c r="J89">
-        <v>0.7619976000000001</v>
-      </c>
-      <c r="K89">
-        <v>1.1806776</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>0.7714800000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E90" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F90" t="s">
-        <v>82</v>
-      </c>
-      <c r="G90">
-        <v>1.2811608</v>
+        <v>83</v>
       </c>
       <c r="H90">
-        <v>1.925928</v>
+        <v>0.0396</v>
       </c>
       <c r="I90">
-        <v>2.972628</v>
-      </c>
-      <c r="J90">
-        <v>4.5929196</v>
-      </c>
-      <c r="K90">
-        <v>7.096626000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>0.18792</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E91" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F91" t="s">
-        <v>82</v>
-      </c>
-      <c r="G91">
-        <v>0.146538</v>
+        <v>83</v>
       </c>
       <c r="H91">
-        <v>0.2177136</v>
+        <v>0.08928000000000001</v>
       </c>
       <c r="I91">
-        <v>0.334944</v>
-      </c>
-      <c r="J91">
-        <v>0.5191632</v>
-      </c>
-      <c r="K91">
-        <v>0.7996788000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>0.19332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -3142,34 +3118,34 @@
         <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E92" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F92" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G92">
-        <v>1.2099852</v>
+        <v>3.491791200000001</v>
       </c>
       <c r="H92">
-        <v>1.632852</v>
+        <v>5.057654400000001</v>
       </c>
       <c r="I92">
-        <v>2.3697288</v>
+        <v>7.661844</v>
       </c>
       <c r="J92">
-        <v>3.5420328</v>
+        <v>11.7146664</v>
       </c>
       <c r="K92">
-        <v>5.354917200000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>17.9864928</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -3177,136 +3153,136 @@
         <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D93" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E93" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F93" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G93">
-        <v>0.6405804</v>
+        <v>0.2135268</v>
       </c>
       <c r="H93">
-        <v>0.962964</v>
+        <v>0.3181968</v>
       </c>
       <c r="I93">
-        <v>1.486314</v>
+        <v>0.4940424</v>
       </c>
       <c r="J93">
-        <v>2.2985532</v>
+        <v>0.7619976000000001</v>
       </c>
       <c r="K93">
-        <v>3.5504064</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>1.1806776</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D94" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E94" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F94" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G94">
-        <v>3.491791200000001</v>
+        <v>1.2811608</v>
       </c>
       <c r="H94">
-        <v>4.571985600000001</v>
+        <v>1.925928</v>
       </c>
       <c r="I94">
-        <v>6.9961428</v>
+        <v>2.972628</v>
       </c>
       <c r="J94">
-        <v>11.0489652</v>
+        <v>4.5929196</v>
       </c>
       <c r="K94">
-        <v>17.3207916</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>7.096626000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E95" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F95" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G95">
-        <v>0.2135268</v>
+        <v>0.146538</v>
       </c>
       <c r="H95">
-        <v>0.3181968</v>
+        <v>0.2177136</v>
       </c>
       <c r="I95">
-        <v>0.4940424</v>
+        <v>0.334944</v>
       </c>
       <c r="J95">
-        <v>0.7619976000000001</v>
+        <v>0.5191632</v>
       </c>
       <c r="K95">
-        <v>1.1806776</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>0.7996788000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D96" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E96" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F96" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G96">
-        <v>1.2811608</v>
+        <v>1.2099852</v>
       </c>
       <c r="H96">
-        <v>1.7124012</v>
+        <v>1.632852</v>
       </c>
       <c r="I96">
-        <v>2.7172332</v>
+        <v>2.3697288</v>
       </c>
       <c r="J96">
-        <v>4.3375248</v>
+        <v>3.5420328</v>
       </c>
       <c r="K96">
-        <v>6.841231200000001</v>
+        <v>5.354917200000001</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3314,34 +3290,34 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E97" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F97" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G97">
-        <v>0.146538</v>
+        <v>0.6405804</v>
       </c>
       <c r="H97">
-        <v>0.2177136</v>
+        <v>0.962964</v>
       </c>
       <c r="I97">
-        <v>0.334944</v>
+        <v>1.486314</v>
       </c>
       <c r="J97">
-        <v>0.5191632</v>
+        <v>2.2985532</v>
       </c>
       <c r="K97">
-        <v>0.7996788000000001</v>
+        <v>3.5504064</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3349,34 +3325,34 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D98" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E98" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F98" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G98">
-        <v>1.2099852</v>
+        <v>3.491791200000001</v>
       </c>
       <c r="H98">
-        <v>1.3942044</v>
+        <v>4.571985600000001</v>
       </c>
       <c r="I98">
-        <v>2.009664</v>
+        <v>6.9961428</v>
       </c>
       <c r="J98">
-        <v>3.177781200000001</v>
+        <v>11.0489652</v>
       </c>
       <c r="K98">
-        <v>4.9948524</v>
+        <v>17.3207916</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3384,34 +3360,34 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D99" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E99" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F99" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G99">
-        <v>0.6405804</v>
+        <v>0.2135268</v>
       </c>
       <c r="H99">
-        <v>0.9294696</v>
+        <v>0.3181968</v>
       </c>
       <c r="I99">
-        <v>1.444446</v>
+        <v>0.4940424</v>
       </c>
       <c r="J99">
-        <v>2.2524984</v>
+        <v>0.7619976000000001</v>
       </c>
       <c r="K99">
-        <v>3.5043516</v>
+        <v>1.1806776</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3419,34 +3395,34 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E100" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G100">
-        <v>3.491791200000001</v>
+        <v>1.2811608</v>
       </c>
       <c r="H100">
-        <v>4.810633200000001</v>
+        <v>1.7124012</v>
       </c>
       <c r="I100">
-        <v>7.305966000000001</v>
+        <v>2.7172332</v>
       </c>
       <c r="J100">
-        <v>11.3587884</v>
+        <v>4.3375248</v>
       </c>
       <c r="K100">
-        <v>17.6306148</v>
+        <v>6.841231200000001</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3454,34 +3430,34 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E101" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F101" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G101">
-        <v>0.2135268</v>
+        <v>0.146538</v>
       </c>
       <c r="H101">
-        <v>0.3181968</v>
+        <v>0.2177136</v>
       </c>
       <c r="I101">
-        <v>0.4940424</v>
+        <v>0.334944</v>
       </c>
       <c r="J101">
-        <v>0.7619976000000001</v>
+        <v>0.5191632</v>
       </c>
       <c r="K101">
-        <v>1.1806776</v>
+        <v>0.7996788000000001</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3489,34 +3465,34 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E102" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F102" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G102">
-        <v>1.2811608</v>
+        <v>1.2099852</v>
       </c>
       <c r="H102">
-        <v>1.8170712</v>
+        <v>1.3942044</v>
       </c>
       <c r="I102">
-        <v>2.8428372</v>
+        <v>2.009664</v>
       </c>
       <c r="J102">
-        <v>4.4631288</v>
+        <v>3.177781200000001</v>
       </c>
       <c r="K102">
-        <v>6.9668352</v>
+        <v>4.9948524</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3524,34 +3500,34 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D103" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E103" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F103" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G103">
-        <v>0.146538</v>
+        <v>0.6405804</v>
       </c>
       <c r="H103">
-        <v>0.2177136</v>
+        <v>0.9294696</v>
       </c>
       <c r="I103">
-        <v>0.334944</v>
+        <v>1.444446</v>
       </c>
       <c r="J103">
-        <v>0.5191632</v>
+        <v>2.2524984</v>
       </c>
       <c r="K103">
-        <v>0.7996788000000001</v>
+        <v>3.5043516</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -3559,34 +3535,34 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E104" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F104" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G104">
-        <v>1.2099852</v>
+        <v>3.491791200000001</v>
       </c>
       <c r="H104">
-        <v>1.5114348</v>
+        <v>4.810633200000001</v>
       </c>
       <c r="I104">
-        <v>2.1896964</v>
+        <v>7.305966000000001</v>
       </c>
       <c r="J104">
-        <v>3.357813600000001</v>
+        <v>11.3587884</v>
       </c>
       <c r="K104">
-        <v>5.1748848</v>
+        <v>17.6306148</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -3594,33 +3570,173 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D105" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E105" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F105" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G105">
+        <v>0.2135268</v>
+      </c>
+      <c r="H105">
+        <v>0.3181968</v>
+      </c>
+      <c r="I105">
+        <v>0.4940424</v>
+      </c>
+      <c r="J105">
+        <v>0.7619976000000001</v>
+      </c>
+      <c r="K105">
+        <v>1.1806776</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" t="s">
+        <v>82</v>
+      </c>
+      <c r="F106" t="s">
+        <v>86</v>
+      </c>
+      <c r="G106">
+        <v>1.2811608</v>
+      </c>
+      <c r="H106">
+        <v>1.8170712</v>
+      </c>
+      <c r="I106">
+        <v>2.8428372</v>
+      </c>
+      <c r="J106">
+        <v>4.4631288</v>
+      </c>
+      <c r="K106">
+        <v>6.9668352</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" t="s">
+        <v>50</v>
+      </c>
+      <c r="E107" t="s">
+        <v>82</v>
+      </c>
+      <c r="F107" t="s">
+        <v>86</v>
+      </c>
+      <c r="G107">
+        <v>0.146538</v>
+      </c>
+      <c r="H107">
+        <v>0.2177136</v>
+      </c>
+      <c r="I107">
+        <v>0.334944</v>
+      </c>
+      <c r="J107">
+        <v>0.5191632</v>
+      </c>
+      <c r="K107">
+        <v>0.7996788000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E108" t="s">
+        <v>82</v>
+      </c>
+      <c r="F108" t="s">
+        <v>86</v>
+      </c>
+      <c r="G108">
+        <v>1.2099852</v>
+      </c>
+      <c r="H108">
+        <v>1.5114348</v>
+      </c>
+      <c r="I108">
+        <v>2.1896964</v>
+      </c>
+      <c r="J108">
+        <v>3.357813600000001</v>
+      </c>
+      <c r="K108">
+        <v>5.1748848</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" t="s">
+        <v>82</v>
+      </c>
+      <c r="F109" t="s">
+        <v>86</v>
+      </c>
+      <c r="G109">
         <v>0.6405804</v>
       </c>
-      <c r="H105">
+      <c r="H109">
         <v>0.94203</v>
       </c>
-      <c r="I105">
+      <c r="I109">
         <v>1.444446</v>
       </c>
-      <c r="J105">
+      <c r="J109">
         <v>2.2524984</v>
       </c>
-      <c r="K105">
+      <c r="K109">
         <v>3.5043516</v>
       </c>
     </row>
@@ -3631,14 +3747,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3650,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3683,7 +3799,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3694,7 +3810,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3705,7 +3821,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3716,7 +3832,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3727,7 +3843,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3754,21 +3870,21 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -3776,10 +3892,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3787,10 +3903,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -3798,12 +3914,56 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="b">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data_export.xlsx
+++ b/data_export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="122">
   <si>
     <t>Model</t>
   </si>
@@ -71,6 +71,9 @@
     <t>MoEUCC (2023)</t>
   </si>
   <si>
+    <t>Onenli et al. (2023)</t>
+  </si>
+  <si>
     <t>Taranto et al. (2021)</t>
   </si>
   <si>
@@ -123,6 +126,12 @@
   </si>
   <si>
     <t xml:space="preserve">CO2 </t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Energy security</t>
   </si>
   <si>
     <t>Transition</t>
@@ -362,13 +371,16 @@
     <t>exclude</t>
   </si>
   <si>
-    <t>above 30%</t>
+    <t>above 25%</t>
   </si>
   <si>
-    <t>below 30%</t>
+    <t>below 25%</t>
   </si>
   <si>
-    <t>below 10%</t>
+    <t>below 38%</t>
+  </si>
+  <si>
+    <t>above 38%</t>
   </si>
 </sst>
 </file>
@@ -726,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J385"/>
+  <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -777,16 +789,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F2">
         <v>0.2135268</v>
@@ -809,16 +821,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F3">
         <v>1.2811608</v>
@@ -841,16 +853,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F4">
         <v>0.146538</v>
@@ -873,16 +885,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F5">
         <v>1.2099852</v>
@@ -905,16 +917,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F6">
         <v>0.6405804</v>
@@ -937,16 +949,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F7">
         <v>0.2135268</v>
@@ -969,16 +981,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F8">
         <v>1.2811608</v>
@@ -1001,16 +1013,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F9">
         <v>0.146538</v>
@@ -1033,16 +1045,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F10">
         <v>1.2099852</v>
@@ -1065,16 +1077,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F11">
         <v>0.6405804</v>
@@ -1097,16 +1109,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F12">
         <v>0.2135268</v>
@@ -1129,16 +1141,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F13">
         <v>1.2811608</v>
@@ -1161,16 +1173,16 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F14">
         <v>0.146538</v>
@@ -1193,16 +1205,16 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F15">
         <v>1.2099852</v>
@@ -1225,16 +1237,16 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F16">
         <v>0.6405804</v>
@@ -1257,16 +1269,16 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G17">
         <v>1.10413116</v>
@@ -1286,16 +1298,16 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G18">
         <v>0.3809232</v>
@@ -1315,16 +1327,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G19">
         <v>0.2553526799999999</v>
@@ -1344,16 +1356,16 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G20">
         <v>0.2811398399999999</v>
@@ -1373,16 +1385,16 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H21">
         <v>0.142290557</v>
@@ -1399,16 +1411,16 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G22">
         <v>0.1288022399999999</v>
@@ -1428,16 +1440,16 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G23">
         <v>0.05791319999999999</v>
@@ -1457,16 +1469,16 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G24">
         <v>0.03942071999999998</v>
@@ -1486,16 +1498,16 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G25">
         <v>0.08938151999999994</v>
@@ -1515,13 +1527,13 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G26">
         <v>0.1166548365503967</v>
@@ -1541,16 +1553,16 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G27">
         <v>1.10413116</v>
@@ -1570,16 +1582,16 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G28">
         <v>0.3809232</v>
@@ -1599,16 +1611,16 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G29">
         <v>0.2553526799999999</v>
@@ -1628,16 +1640,16 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G30">
         <v>0.2811398399999999</v>
@@ -1657,16 +1669,16 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H31">
         <v>0.175491479</v>
@@ -1683,16 +1695,16 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G32">
         <v>0.1288022399999999</v>
@@ -1712,16 +1724,16 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G33">
         <v>0.05791319999999999</v>
@@ -1741,16 +1753,16 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G34">
         <v>0.03942071999999998</v>
@@ -1770,16 +1782,16 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G35">
         <v>0.08938151999999994</v>
@@ -1799,13 +1811,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G36">
         <v>0.1166548365503967</v>
@@ -1825,16 +1837,16 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G37">
         <v>1.10413116</v>
@@ -1854,16 +1866,16 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G38">
         <v>0.3809232</v>
@@ -1883,16 +1895,16 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I39">
         <v>0.192527687</v>
@@ -1906,16 +1918,16 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G40">
         <v>0.3809232</v>
@@ -1935,16 +1947,16 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G41">
         <v>0.2553526799999999</v>
@@ -1964,16 +1976,16 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I42">
         <v>0.0142847844</v>
@@ -1987,16 +1999,16 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G43">
         <v>0.2553526799999999</v>
@@ -2016,16 +2028,16 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G44">
         <v>0.2811398399999999</v>
@@ -2045,16 +2057,16 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H45">
         <v>0.175491479</v>
@@ -2071,16 +2083,16 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G46">
         <v>0.1288022399999999</v>
@@ -2100,16 +2112,16 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G47">
         <v>0.05791319999999999</v>
@@ -2129,16 +2141,16 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G48">
         <v>0.03942071999999998</v>
@@ -2158,16 +2170,16 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G49">
         <v>0.08938151999999994</v>
@@ -2187,13 +2199,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G50">
         <v>0.1166548365503967</v>
@@ -2213,16 +2225,16 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G51">
         <v>369.3</v>
@@ -2239,16 +2251,16 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G52">
         <v>0.9252828000000001</v>
@@ -2265,16 +2277,16 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G53">
         <v>0.0334944</v>
@@ -2291,16 +2303,16 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G54">
         <v>0.4186800000000001</v>
@@ -2317,16 +2329,16 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G55">
         <v>0.4731084</v>
@@ -2343,16 +2355,16 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G56">
         <v>0.0041868</v>
@@ -2369,16 +2381,16 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G57">
         <v>0.9880848000000001</v>
@@ -2395,16 +2407,16 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G58">
         <v>0.0083736</v>
@@ -2421,16 +2433,16 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G59">
         <v>0.3935592000000001</v>
@@ -2447,16 +2459,16 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G60">
         <v>0.5735916</v>
@@ -2473,16 +2485,16 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G61">
         <v>0.0041868</v>
@@ -2499,16 +2511,16 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G62">
         <v>1.4905008</v>
@@ -2525,16 +2537,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G63">
         <v>0.125604</v>
@@ -2551,16 +2563,16 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E64" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G64">
         <v>0.1590984</v>
@@ -2577,16 +2589,16 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G65">
         <v>0.041868</v>
@@ -2603,16 +2615,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E66" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G66">
         <v>1.1639304</v>
@@ -2629,16 +2641,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G67">
         <v>0.3265704</v>
@@ -2655,16 +2667,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G68">
         <v>0.0251208</v>
@@ -2681,16 +2693,16 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E69" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G69">
         <v>0.146538</v>
@@ -2707,16 +2719,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E70" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G70">
         <v>0.146538</v>
@@ -2733,16 +2745,16 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G71">
         <v>0.0083736</v>
@@ -2759,16 +2771,16 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E72" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G72">
         <v>0.1925928</v>
@@ -2785,16 +2797,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G73">
         <v>1.5156216</v>
@@ -2811,16 +2823,16 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E74" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G74">
         <v>1.3983912</v>
@@ -2837,16 +2849,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E75" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G75">
         <v>1.1890512</v>
@@ -2863,16 +2875,16 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G76">
         <v>0.5610312000000001</v>
@@ -2889,16 +2901,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2915,16 +2927,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G78">
         <v>0.397746</v>
@@ -2941,16 +2953,16 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D79" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G79">
         <v>0.1632852</v>
@@ -2967,16 +2979,16 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E80" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2993,16 +3005,16 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E81" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G81">
         <v>6.0122448</v>
@@ -3019,16 +3031,16 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G82">
         <v>1.7082144</v>
@@ -3045,16 +3057,16 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G83">
         <v>1.7249616</v>
@@ -3071,16 +3083,16 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3097,16 +3109,16 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E85" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G85">
         <v>1.7542692</v>
@@ -3123,16 +3135,16 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D86" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E86" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G86">
         <v>0.8247996</v>
@@ -3149,16 +3161,16 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E87" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G87">
         <v>1.08288</v>
@@ -3175,16 +3187,16 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G88">
         <v>0.4068000000000001</v>
@@ -3201,16 +3213,16 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D89" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G89">
         <v>0.19836</v>
@@ -3227,16 +3239,16 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E90" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G90">
         <v>0.02952</v>
@@ -3253,16 +3265,16 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E91" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G91">
         <v>0.31896</v>
@@ -3279,16 +3291,16 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E92" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3305,16 +3317,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D93" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E93" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G93">
         <v>0.00324</v>
@@ -3331,16 +3343,16 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D94" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G94">
         <v>0.1116</v>
@@ -3357,16 +3369,16 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E95" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G95">
         <v>0.0144</v>
@@ -3383,16 +3395,16 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E96" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G96">
         <v>0.03456</v>
@@ -3409,16 +3421,16 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D97" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E97" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G97">
         <v>0.07704</v>
@@ -3435,13 +3447,13 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G98">
         <v>0.2841225626740947</v>
@@ -3458,13 +3470,13 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D99" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G99">
         <v>0.1030585106382979</v>
@@ -3481,16 +3493,16 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E100" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G100">
         <v>369.3</v>
@@ -3507,16 +3519,16 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C101" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D101" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E101" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G101">
         <v>0.9252828000000001</v>
@@ -3533,16 +3545,16 @@
         <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C102" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D102" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G102">
         <v>0.0334944</v>
@@ -3559,16 +3571,16 @@
         <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E103" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G103">
         <v>0.4186800000000001</v>
@@ -3585,16 +3597,16 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D104" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E104" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G104">
         <v>0.4731084</v>
@@ -3611,16 +3623,16 @@
         <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E105" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G105">
         <v>0.0041868</v>
@@ -3637,16 +3649,16 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D106" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E106" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G106">
         <v>0.9880848000000001</v>
@@ -3663,16 +3675,16 @@
         <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D107" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E107" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G107">
         <v>0.0083736</v>
@@ -3689,16 +3701,16 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D108" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E108" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G108">
         <v>0.3935592000000001</v>
@@ -3715,16 +3727,16 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D109" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E109" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G109">
         <v>0.5735916</v>
@@ -3741,16 +3753,16 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E110" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G110">
         <v>0.0041868</v>
@@ -3767,16 +3779,16 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C111" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D111" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E111" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G111">
         <v>1.4905008</v>
@@ -3793,16 +3805,16 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D112" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E112" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G112">
         <v>0.125604</v>
@@ -3819,16 +3831,16 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D113" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E113" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G113">
         <v>0.1590984</v>
@@ -3845,16 +3857,16 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E114" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G114">
         <v>0.041868</v>
@@ -3871,16 +3883,16 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D115" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E115" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G115">
         <v>1.1639304</v>
@@ -3897,16 +3909,16 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C116" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D116" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E116" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G116">
         <v>0.3265704</v>
@@ -3923,16 +3935,16 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D117" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E117" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G117">
         <v>0.0251208</v>
@@ -3949,16 +3961,16 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D118" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E118" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G118">
         <v>0.146538</v>
@@ -3975,16 +3987,16 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D119" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E119" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G119">
         <v>0.146538</v>
@@ -4001,16 +4013,16 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D120" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E120" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G120">
         <v>0.0083736</v>
@@ -4027,16 +4039,16 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C121" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D121" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E121" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G121">
         <v>0.1925928</v>
@@ -4053,16 +4065,16 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D122" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E122" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G122">
         <v>1.5156216</v>
@@ -4079,16 +4091,16 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C123" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E123" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G123">
         <v>1.3983912</v>
@@ -4105,16 +4117,16 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D124" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E124" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G124">
         <v>1.1890512</v>
@@ -4131,16 +4143,16 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C125" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D125" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E125" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G125">
         <v>0.5610312000000001</v>
@@ -4157,16 +4169,16 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C126" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D126" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E126" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4183,16 +4195,16 @@
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C127" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D127" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E127" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G127">
         <v>0.397746</v>
@@ -4209,16 +4221,16 @@
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C128" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D128" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E128" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G128">
         <v>0.1632852</v>
@@ -4235,16 +4247,16 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D129" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E129" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4261,16 +4273,16 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D130" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E130" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G130">
         <v>6.0122448</v>
@@ -4287,16 +4299,16 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C131" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D131" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E131" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G131">
         <v>1.7082144</v>
@@ -4313,16 +4325,16 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C132" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D132" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E132" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G132">
         <v>1.7249616</v>
@@ -4339,16 +4351,16 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D133" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E133" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4365,16 +4377,16 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C134" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D134" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E134" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G134">
         <v>1.7542692</v>
@@ -4391,16 +4403,16 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C135" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D135" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E135" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G135">
         <v>0.8247996</v>
@@ -4417,16 +4429,16 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D136" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E136" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G136">
         <v>1.08288</v>
@@ -4443,16 +4455,16 @@
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E137" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G137">
         <v>0.4068000000000001</v>
@@ -4469,16 +4481,16 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D138" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E138" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G138">
         <v>0.19836</v>
@@ -4495,16 +4507,16 @@
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D139" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E139" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G139">
         <v>0.02952</v>
@@ -4521,16 +4533,16 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D140" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E140" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G140">
         <v>0.31896</v>
@@ -4547,16 +4559,16 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C141" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D141" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E141" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4573,16 +4585,16 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C142" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D142" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E142" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G142">
         <v>0.00324</v>
@@ -4599,16 +4611,16 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D143" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G143">
         <v>0.1116</v>
@@ -4625,16 +4637,16 @@
         <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C144" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D144" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E144" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G144">
         <v>0.0144</v>
@@ -4651,16 +4663,16 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C145" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D145" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E145" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G145">
         <v>0.03456</v>
@@ -4677,16 +4689,16 @@
         <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D146" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E146" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G146">
         <v>0.07704</v>
@@ -4703,13 +4715,13 @@
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C147" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G147">
         <v>0.2841225626740947</v>
@@ -4726,13 +4738,13 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C148" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D148" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G148">
         <v>0.1030585106382979</v>
@@ -4749,16 +4761,16 @@
         <v>13</v>
       </c>
       <c r="B149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C149" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E149" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G149">
         <v>293.826</v>
@@ -4778,16 +4790,16 @@
         <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C150" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D150" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E150" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G150">
         <v>4.831633921824</v>
@@ -4807,16 +4819,16 @@
         <v>13</v>
       </c>
       <c r="B151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C151" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D151" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E151" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G151">
         <v>0.05312848190400001</v>
@@ -4836,16 +4848,16 @@
         <v>13</v>
       </c>
       <c r="B152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C152" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D152" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E152" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G152">
         <v>1.285943167008</v>
@@ -4865,16 +4877,16 @@
         <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C153" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D153" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E153" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G153">
         <v>1.95521106744</v>
@@ -4894,16 +4906,16 @@
         <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C154" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D154" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E154" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G154">
         <v>0.06279993957600001</v>
@@ -4923,16 +4935,16 @@
         <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C155" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D155" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E155" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G155">
         <v>1.38699754488</v>
@@ -4952,16 +4964,16 @@
         <v>13</v>
       </c>
       <c r="B156" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C156" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D156" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E156" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G156">
         <v>0.069305538816</v>
@@ -4981,16 +4993,16 @@
         <v>13</v>
       </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C157" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D157" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E157" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G157">
         <v>0.0182481822</v>
@@ -5010,16 +5022,16 @@
         <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C158" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D158" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E158" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G158">
         <v>1.044025130016</v>
@@ -5039,16 +5051,16 @@
         <v>13</v>
       </c>
       <c r="B159" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C159" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D159" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E159" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -5068,16 +5080,16 @@
         <v>13</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C160" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D160" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E160" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G160">
         <v>0.447107761224</v>
@@ -5097,16 +5109,16 @@
         <v>13</v>
       </c>
       <c r="B161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C161" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D161" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E161" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G161">
         <v>0.506693243664</v>
@@ -5126,16 +5138,16 @@
         <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C162" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D162" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E162" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G162">
         <v>0.0029821932</v>
@@ -5155,16 +5167,16 @@
         <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C163" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D163" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E163" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G163">
         <v>0.06918782896800001</v>
@@ -5184,16 +5196,16 @@
         <v>13</v>
       </c>
       <c r="B164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C164" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D164" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E164" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -5213,16 +5225,16 @@
         <v>13</v>
       </c>
       <c r="B165" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C165" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D165" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E165" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G165">
         <v>0.001599654744</v>
@@ -5242,16 +5254,16 @@
         <v>13</v>
       </c>
       <c r="B166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C166" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D166" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E166" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G166">
         <v>0.016454448216</v>
@@ -5271,16 +5283,16 @@
         <v>13</v>
       </c>
       <c r="B167" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C167" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D167" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E167" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G167">
         <v>0.0038342484</v>
@@ -5300,16 +5312,16 @@
         <v>13</v>
       </c>
       <c r="B168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C168" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D168" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E168" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G168">
         <v>0.012620199816</v>
@@ -5329,13 +5341,13 @@
         <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C169" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D169" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G169">
         <v>0.2661507862173757</v>
@@ -5355,13 +5367,13 @@
         <v>13</v>
       </c>
       <c r="B170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C170" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D170" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G170">
         <v>0.01576058635269425</v>
@@ -5381,16 +5393,16 @@
         <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C171" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D171" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E171" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G171">
         <v>293.363</v>
@@ -5410,16 +5422,16 @@
         <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C172" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D172" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E172" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G172">
         <v>4.828257258624001</v>
@@ -5439,16 +5451,16 @@
         <v>13</v>
       </c>
       <c r="B173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C173" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D173" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E173" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G173">
         <v>0.05312848190400001</v>
@@ -5468,16 +5480,16 @@
         <v>13</v>
       </c>
       <c r="B174" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C174" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D174" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E174" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G174">
         <v>1.282153099248</v>
@@ -5497,16 +5509,16 @@
         <v>13</v>
       </c>
       <c r="B175" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C175" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D175" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E175" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G175">
         <v>1.95509746008</v>
@@ -5526,16 +5538,16 @@
         <v>13</v>
       </c>
       <c r="B176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C176" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D176" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E176" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G176">
         <v>0.06279993957600001</v>
@@ -5555,16 +5567,16 @@
         <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C177" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D177" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E177" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G177">
         <v>1.3875245568</v>
@@ -5584,16 +5596,16 @@
         <v>13</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C178" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D178" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E178" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G178">
         <v>0.069305538816</v>
@@ -5613,16 +5625,16 @@
         <v>13</v>
       </c>
       <c r="B179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C179" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D179" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E179" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G179">
         <v>0.0182481822</v>
@@ -5642,16 +5654,16 @@
         <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C180" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D180" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E180" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G180">
         <v>1.0299059442</v>
@@ -5671,16 +5683,16 @@
         <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C181" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D181" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E181" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G181">
         <v>0.0029821932</v>
@@ -5700,16 +5712,16 @@
         <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C182" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D182" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E182" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G182">
         <v>0.280499412024</v>
@@ -5729,16 +5741,16 @@
         <v>13</v>
       </c>
       <c r="B183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C183" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D183" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E183" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G183">
         <v>0.504483264936</v>
@@ -5758,16 +5770,16 @@
         <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C184" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D184" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E184" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G184">
         <v>0.0038342484</v>
@@ -5787,16 +5799,16 @@
         <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C185" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D185" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E185" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G185">
         <v>0.20247671736</v>
@@ -5816,16 +5828,16 @@
         <v>13</v>
       </c>
       <c r="B186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C186" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D186" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E186" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -5845,16 +5857,16 @@
         <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C187" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D187" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E187" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G187">
         <v>0.019768627368</v>
@@ -5874,16 +5886,16 @@
         <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C188" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D188" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E188" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G188">
         <v>0.015861480912</v>
@@ -5903,16 +5915,16 @@
         <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C189" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D189" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E189" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G189">
         <v>0.0001893456</v>
@@ -5932,16 +5944,16 @@
         <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C190" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D190" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E190" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G190">
         <v>0.015672135312</v>
@@ -5961,13 +5973,13 @@
         <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C191" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D191" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G191">
         <v>0.2655519436040572</v>
@@ -5987,13 +5999,13 @@
         <v>13</v>
       </c>
       <c r="B192" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C192" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D192" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G192">
         <v>0.01540090238465487</v>
@@ -6013,16 +6025,16 @@
         <v>13</v>
       </c>
       <c r="B193" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C193" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D193" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E193" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G193">
         <v>301.963</v>
@@ -6042,16 +6054,16 @@
         <v>13</v>
       </c>
       <c r="B194" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C194" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D194" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E194" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G194">
         <v>4.939371883800001</v>
@@ -6071,16 +6083,16 @@
         <v>13</v>
       </c>
       <c r="B195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C195" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D195" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E195" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G195">
         <v>0.06105638217600001</v>
@@ -6100,16 +6112,16 @@
         <v>13</v>
       </c>
       <c r="B196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C196" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D196" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E196" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G196">
         <v>1.284529386528</v>
@@ -6129,16 +6141,16 @@
         <v>13</v>
       </c>
       <c r="B197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C197" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D197" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E197" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G197">
         <v>2.0124439308</v>
@@ -6158,16 +6170,16 @@
         <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C198" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D198" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E198" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G198">
         <v>0.06435036446400001</v>
@@ -6187,16 +6199,16 @@
         <v>13</v>
       </c>
       <c r="B199" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C199" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D199" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E199" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G199">
         <v>1.42677905544</v>
@@ -6216,16 +6228,16 @@
         <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C200" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D200" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E200" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G200">
         <v>0.07196458219200001</v>
@@ -6245,16 +6257,16 @@
         <v>13</v>
       </c>
       <c r="B201" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C201" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D201" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E201" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G201">
         <v>0.0182481822</v>
@@ -6274,16 +6286,16 @@
         <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C202" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D202" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E202" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G202">
         <v>1.06464928392</v>
@@ -6303,16 +6315,16 @@
         <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C203" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D203" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E203" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G203">
         <v>0.0029821932</v>
@@ -6332,16 +6344,16 @@
         <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C204" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D204" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E204" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G204">
         <v>0.2732979677040001</v>
@@ -6361,16 +6373,16 @@
         <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C205" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D205" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E205" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G205">
         <v>0.520282892952</v>
@@ -6390,16 +6402,16 @@
         <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C206" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D206" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E206" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G206">
         <v>0.0038342484</v>
@@ -6419,16 +6431,16 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C207" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D207" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E207" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G207">
         <v>0.223990164432</v>
@@ -6448,16 +6460,16 @@
         <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C208" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D208" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E208" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -6477,16 +6489,16 @@
         <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C209" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D209" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E209" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G209">
         <v>0.027861573888</v>
@@ -6506,16 +6518,16 @@
         <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C210" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D210" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E210" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G210">
         <v>0.012400243344</v>
@@ -6535,16 +6547,16 @@
         <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C211" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D211" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E211" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G211">
         <v>0.0008160795360000001</v>
@@ -6564,16 +6576,16 @@
         <v>13</v>
       </c>
       <c r="B212" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C212" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D212" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E212" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G212">
         <v>0.011584163808</v>
@@ -6593,13 +6605,13 @@
         <v>13</v>
       </c>
       <c r="B213" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C213" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D213" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G213">
         <v>0.2600592578868094</v>
@@ -6619,13 +6631,13 @@
         <v>13</v>
       </c>
       <c r="B214" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C214" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D214" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G214">
         <v>0.01164725654850652</v>
@@ -6645,16 +6657,16 @@
         <v>13</v>
       </c>
       <c r="B215" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C215" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D215" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E215" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G215">
         <v>301.468</v>
@@ -6674,16 +6686,16 @@
         <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C216" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D216" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E216" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G216">
         <v>4.930351459416001</v>
@@ -6703,16 +6715,16 @@
         <v>13</v>
       </c>
       <c r="B217" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C217" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D217" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E217" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G217">
         <v>0.06105638217600001</v>
@@ -6732,16 +6744,16 @@
         <v>13</v>
       </c>
       <c r="B218" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C218" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D218" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E218" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G218">
         <v>1.275466043808</v>
@@ -6761,16 +6773,16 @@
         <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C219" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D219" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E219" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G219">
         <v>2.0124439308</v>
@@ -6790,16 +6802,16 @@
         <v>13</v>
       </c>
       <c r="B220" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C220" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D220" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E220" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G220">
         <v>0.06435036446400001</v>
@@ -6819,16 +6831,16 @@
         <v>13</v>
       </c>
       <c r="B221" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C221" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D221" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E221" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G221">
         <v>1.42677905544</v>
@@ -6848,16 +6860,16 @@
         <v>13</v>
       </c>
       <c r="B222" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C222" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D222" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E222" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G222">
         <v>0.07200750052800002</v>
@@ -6877,16 +6889,16 @@
         <v>13</v>
       </c>
       <c r="B223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C223" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D223" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E223" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G223">
         <v>0.0182481822</v>
@@ -6906,16 +6918,16 @@
         <v>13</v>
       </c>
       <c r="B224" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C224" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D224" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E224" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G224">
         <v>1.060928958456</v>
@@ -6935,16 +6947,16 @@
         <v>13</v>
       </c>
       <c r="B225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C225" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D225" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E225" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G225">
         <v>0.0029821932</v>
@@ -6964,16 +6976,16 @@
         <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C226" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D226" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E226" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G226">
         <v>0.272214910872</v>
@@ -6993,16 +7005,16 @@
         <v>13</v>
       </c>
       <c r="B227" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C227" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D227" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E227" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G227">
         <v>0.5332379189040001</v>
@@ -7022,16 +7034,16 @@
         <v>13</v>
       </c>
       <c r="B228" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C228" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D228" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E228" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G228">
         <v>0.0038342484</v>
@@ -7051,16 +7063,16 @@
         <v>13</v>
       </c>
       <c r="B229" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C229" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D229" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E229" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G229">
         <v>0.204129073296</v>
@@ -7080,16 +7092,16 @@
         <v>13</v>
       </c>
       <c r="B230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C230" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D230" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E230" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -7109,16 +7121,16 @@
         <v>13</v>
       </c>
       <c r="B231" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C231" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D231" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E231" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G231">
         <v>0.027865045224</v>
@@ -7138,16 +7150,16 @@
         <v>13</v>
       </c>
       <c r="B232" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C232" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D232" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E232" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G232">
         <v>0.01666556856</v>
@@ -7167,16 +7179,16 @@
         <v>13</v>
       </c>
       <c r="B233" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C233" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D233" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E233" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G233">
         <v>0.0008615224800000001</v>
@@ -7196,16 +7208,16 @@
         <v>13</v>
       </c>
       <c r="B234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C234" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D234" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E234" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G234">
         <v>0.01580404608</v>
@@ -7225,13 +7237,13 @@
         <v>13</v>
       </c>
       <c r="B235" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C235" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D235" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G235">
         <v>0.2586967793892485</v>
@@ -7251,13 +7263,13 @@
         <v>13</v>
       </c>
       <c r="B236" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C236" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D236" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G236">
         <v>0.01570846796778351</v>
@@ -7277,16 +7289,16 @@
         <v>13</v>
       </c>
       <c r="B237" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C237" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D237" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E237" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G237">
         <v>311.957</v>
@@ -7306,16 +7318,16 @@
         <v>13</v>
       </c>
       <c r="B238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C238" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D238" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E238" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G238">
         <v>4.948508755728001</v>
@@ -7335,16 +7347,16 @@
         <v>13</v>
       </c>
       <c r="B239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C239" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D239" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E239" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G239">
         <v>0.06403037040000001</v>
@@ -7364,16 +7376,16 @@
         <v>13</v>
       </c>
       <c r="B240" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C240" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D240" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E240" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G240">
         <v>1.282367690928</v>
@@ -7393,16 +7405,16 @@
         <v>13</v>
       </c>
       <c r="B241" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C241" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D241" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E241" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G241">
         <v>2.0124439308</v>
@@ -7422,16 +7434,16 @@
         <v>13</v>
       </c>
       <c r="B242" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C242" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D242" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E242" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G242">
         <v>0.06794509068000001</v>
@@ -7451,16 +7463,16 @@
         <v>13</v>
       </c>
       <c r="B243" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C243" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D243" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E243" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G243">
         <v>1.42677905544</v>
@@ -7480,16 +7492,16 @@
         <v>13</v>
       </c>
       <c r="B244" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C244" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D244" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E244" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G244">
         <v>0.07669443528000001</v>
@@ -7509,16 +7521,16 @@
         <v>13</v>
       </c>
       <c r="B245" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C245" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D245" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E245" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G245">
         <v>0.0182481822</v>
@@ -7538,16 +7550,16 @@
         <v>13</v>
       </c>
       <c r="B246" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C246" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D246" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E246" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G246">
         <v>1.124312713632</v>
@@ -7567,16 +7579,16 @@
         <v>13</v>
       </c>
       <c r="B247" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C247" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D247" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E247" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G247">
         <v>0.0029821932</v>
@@ -7596,16 +7608,16 @@
         <v>13</v>
       </c>
       <c r="B248" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C248" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D248" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E248" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G248">
         <v>0.255929295816</v>
@@ -7625,16 +7637,16 @@
         <v>13</v>
       </c>
       <c r="B249" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C249" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D249" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E249" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G249">
         <v>0.4861666027440001</v>
@@ -7654,16 +7666,16 @@
         <v>13</v>
       </c>
       <c r="B250" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C250" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D250" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E250" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G250">
         <v>0.003881584800000001</v>
@@ -7683,16 +7695,16 @@
         <v>13</v>
       </c>
       <c r="B251" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C251" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D251" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E251" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G251">
         <v>0.228366887976</v>
@@ -7712,16 +7724,16 @@
         <v>13</v>
       </c>
       <c r="B252" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C252" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D252" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E252" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G252">
         <v>0.103910971824</v>
@@ -7741,16 +7753,16 @@
         <v>13</v>
       </c>
       <c r="B253" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C253" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D253" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E253" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G253">
         <v>0.02748950978400001</v>
@@ -7770,16 +7782,16 @@
         <v>13</v>
       </c>
       <c r="B254" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C254" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D254" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E254" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G254">
         <v>0.015585667488</v>
@@ -7799,16 +7811,16 @@
         <v>13</v>
       </c>
       <c r="B255" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C255" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D255" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E255" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G255">
         <v>0.0009407320560000001</v>
@@ -7828,16 +7840,16 @@
         <v>13</v>
       </c>
       <c r="B256" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C256" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D256" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E256" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G256">
         <v>0.014644935432</v>
@@ -7857,13 +7869,13 @@
         <v>13</v>
       </c>
       <c r="B257" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C257" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D257" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G257">
         <v>0.2591422495602606</v>
@@ -7883,13 +7895,13 @@
         <v>13</v>
       </c>
       <c r="B258" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C258" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D258" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G258">
         <v>0.0138623954875079</v>
@@ -7909,16 +7921,16 @@
         <v>13</v>
       </c>
       <c r="B259" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C259" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D259" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E259" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G259">
         <v>310.143</v>
@@ -7938,16 +7950,16 @@
         <v>13</v>
       </c>
       <c r="B260" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C260" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D260" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E260" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G260">
         <v>4.943359817712001</v>
@@ -7967,16 +7979,16 @@
         <v>13</v>
       </c>
       <c r="B261" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C261" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D261" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E261" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G261">
         <v>0.06403037040000001</v>
@@ -7996,16 +8008,16 @@
         <v>13</v>
       </c>
       <c r="B262" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C262" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D262" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E262" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G262">
         <v>1.268204640048</v>
@@ -8025,16 +8037,16 @@
         <v>13</v>
       </c>
       <c r="B263" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C263" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D263" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E263" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G263">
         <v>2.0124439308</v>
@@ -8054,16 +8066,16 @@
         <v>13</v>
       </c>
       <c r="B264" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C264" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D264" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E264" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G264">
         <v>0.06794509068000001</v>
@@ -8083,16 +8095,16 @@
         <v>13</v>
       </c>
       <c r="B265" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C265" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D265" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E265" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G265">
         <v>1.42677905544</v>
@@ -8112,16 +8124,16 @@
         <v>13</v>
       </c>
       <c r="B266" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C266" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D266" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E266" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G266">
         <v>0.08570854814400002</v>
@@ -8141,16 +8153,16 @@
         <v>13</v>
       </c>
       <c r="B267" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C267" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D267" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E267" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G267">
         <v>0.0182481822</v>
@@ -8170,16 +8182,16 @@
         <v>13</v>
       </c>
       <c r="B268" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C268" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D268" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E268" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G268">
         <v>1.101195509328</v>
@@ -8199,16 +8211,16 @@
         <v>13</v>
       </c>
       <c r="B269" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C269" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D269" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E269" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G269">
         <v>0.0029821932</v>
@@ -8228,16 +8240,16 @@
         <v>13</v>
       </c>
       <c r="B270" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C270" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D270" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E270" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G270">
         <v>0.253201772448</v>
@@ -8257,16 +8269,16 @@
         <v>13</v>
       </c>
       <c r="B271" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C271" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D271" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E271" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G271">
         <v>0.4846512067920001</v>
@@ -8286,16 +8298,16 @@
         <v>13</v>
       </c>
       <c r="B272" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C272" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D272" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E272" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G272">
         <v>0.003881584800000001</v>
@@ -8315,16 +8327,16 @@
         <v>13</v>
       </c>
       <c r="B273" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C273" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D273" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E273" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G273">
         <v>0.20659340628</v>
@@ -8344,16 +8356,16 @@
         <v>13</v>
       </c>
       <c r="B274" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C274" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D274" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E274" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G274">
         <v>0.102795410664</v>
@@ -8373,16 +8385,16 @@
         <v>13</v>
       </c>
       <c r="B275" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C275" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D275" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E275" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G275">
         <v>0.020234101968</v>
@@ -8402,16 +8414,16 @@
         <v>13</v>
       </c>
       <c r="B276" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C276" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D276" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E276" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G276">
         <v>0.02685583317600001</v>
@@ -8431,16 +8443,16 @@
         <v>13</v>
       </c>
       <c r="B277" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C277" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D277" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E277" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G277">
         <v>0.010492902</v>
@@ -8460,16 +8472,16 @@
         <v>13</v>
       </c>
       <c r="B278" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C278" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D278" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E278" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G278">
         <v>0.016362931176</v>
@@ -8489,13 +8501,13 @@
         <v>13</v>
       </c>
       <c r="B279" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C279" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D279" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G279">
         <v>0.2565471029448509</v>
@@ -8515,13 +8527,13 @@
         <v>13</v>
       </c>
       <c r="B280" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C280" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D280" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G280">
         <v>0.02438788838903699</v>
@@ -8541,16 +8553,16 @@
         <v>14</v>
       </c>
       <c r="B281" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C281" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D281" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E281" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G281">
         <v>137.8</v>
@@ -8570,16 +8582,16 @@
         <v>14</v>
       </c>
       <c r="B282" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C282" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D282" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E282" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G282">
         <v>382</v>
@@ -8599,16 +8611,16 @@
         <v>14</v>
       </c>
       <c r="B283" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C283" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D283" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E283" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G283">
         <v>137.8</v>
@@ -8628,16 +8640,16 @@
         <v>14</v>
       </c>
       <c r="B284" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C284" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D284" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E284" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J284">
         <v>0.31464</v>
@@ -8648,16 +8660,16 @@
         <v>14</v>
       </c>
       <c r="B285" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C285" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D285" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E285" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J285">
         <v>0.39492</v>
@@ -8668,16 +8680,16 @@
         <v>14</v>
       </c>
       <c r="B286" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C286" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D286" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E286" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J286">
         <v>0.06228000000000001</v>
@@ -8688,16 +8700,16 @@
         <v>15</v>
       </c>
       <c r="B287" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C287" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D287" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E287" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G287">
         <v>0.4320000000000001</v>
@@ -8711,16 +8723,16 @@
         <v>15</v>
       </c>
       <c r="B288" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C288" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D288" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E288" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G288">
         <v>0.21852</v>
@@ -8734,16 +8746,16 @@
         <v>15</v>
       </c>
       <c r="B289" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C289" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D289" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E289" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G289">
         <v>0.29016</v>
@@ -8757,16 +8769,16 @@
         <v>15</v>
       </c>
       <c r="B290" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C290" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D290" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E290" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G290">
         <v>0.00504</v>
@@ -8780,16 +8792,16 @@
         <v>15</v>
       </c>
       <c r="B291" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C291" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D291" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E291" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H291">
         <v>1.4109516</v>
@@ -8800,16 +8812,16 @@
         <v>15</v>
       </c>
       <c r="B292" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C292" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D292" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E292" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H292">
         <v>0.1632852</v>
@@ -8820,16 +8832,16 @@
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C293" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D293" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E293" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H293">
         <v>0.02736</v>
@@ -8843,16 +8855,16 @@
         <v>15</v>
       </c>
       <c r="B294" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C294" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D294" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E294" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H294">
         <v>1.904994</v>
@@ -8863,16 +8875,16 @@
         <v>15</v>
       </c>
       <c r="B295" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C295" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D295" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E295" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H295">
         <v>0.293076</v>
@@ -8883,16 +8895,16 @@
         <v>15</v>
       </c>
       <c r="B296" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C296" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D296" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E296" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G296">
         <v>0.6866352</v>
@@ -8906,16 +8918,16 @@
         <v>15</v>
       </c>
       <c r="B297" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C297" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D297" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E297" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G297">
         <v>1.5198084</v>
@@ -8929,16 +8941,16 @@
         <v>15</v>
       </c>
       <c r="B298" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C298" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D298" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E298" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G298">
         <v>1.0801944</v>
@@ -8952,16 +8964,16 @@
         <v>15</v>
       </c>
       <c r="B299" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C299" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D299" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E299" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G299">
         <v>1.130436</v>
@@ -8975,16 +8987,16 @@
         <v>15</v>
       </c>
       <c r="B300" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C300" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D300" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E300" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H300">
         <v>0.690822</v>
@@ -8995,16 +9007,16 @@
         <v>15</v>
       </c>
       <c r="B301" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C301" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D301" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E301" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G301">
         <v>6.1629696</v>
@@ -9024,16 +9036,16 @@
         <v>15</v>
       </c>
       <c r="B302" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C302" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D302" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E302" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G302">
         <v>1.6998408</v>
@@ -9053,16 +9065,16 @@
         <v>15</v>
       </c>
       <c r="B303" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C303" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D303" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E303" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G303">
         <v>1.6663464</v>
@@ -9082,16 +9094,16 @@
         <v>15</v>
       </c>
       <c r="B304" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C304" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D304" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E304" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H304">
         <v>0.334944</v>
@@ -9108,16 +9120,16 @@
         <v>15</v>
       </c>
       <c r="B305" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C305" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D305" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E305" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G305">
         <v>1.7668296</v>
@@ -9137,16 +9149,16 @@
         <v>15</v>
       </c>
       <c r="B306" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C306" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D306" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E306" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G306">
         <v>1.0299528</v>
@@ -9166,16 +9178,16 @@
         <v>15</v>
       </c>
       <c r="B307" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C307" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D307" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E307" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G307">
         <v>1.57212</v>
@@ -9189,16 +9201,16 @@
         <v>15</v>
       </c>
       <c r="B308" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C308" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D308" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E308" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G308">
         <v>0.63612</v>
@@ -9212,16 +9224,16 @@
         <v>15</v>
       </c>
       <c r="B309" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C309" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D309" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E309" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G309">
         <v>0.28116</v>
@@ -9235,16 +9247,16 @@
         <v>15</v>
       </c>
       <c r="B310" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C310" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D310" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E310" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H310">
         <v>0.13392</v>
@@ -9255,16 +9267,16 @@
         <v>15</v>
       </c>
       <c r="B311" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C311" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D311" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E311" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G311">
         <v>0.05796000000000001</v>
@@ -9278,16 +9290,16 @@
         <v>15</v>
       </c>
       <c r="B312" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C312" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D312" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E312" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G312">
         <v>0.12888</v>
@@ -9301,16 +9313,16 @@
         <v>15</v>
       </c>
       <c r="B313" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C313" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D313" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E313" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G313">
         <v>0.468</v>
@@ -9324,16 +9336,16 @@
         <v>15</v>
       </c>
       <c r="B314" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C314" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D314" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E314" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G314">
         <v>0.0396</v>
@@ -9347,16 +9359,16 @@
         <v>15</v>
       </c>
       <c r="B315" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C315" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D315" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E315" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G315">
         <v>0.08928000000000001</v>
@@ -9370,13 +9382,13 @@
         <v>15</v>
       </c>
       <c r="B316" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C316" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D316" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G316">
         <v>0.2758152173913044</v>
@@ -9396,13 +9408,13 @@
         <v>15</v>
       </c>
       <c r="B317" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C317" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D317" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G317">
         <v>0.08197847492557821</v>
@@ -9416,16 +9428,16 @@
         <v>16</v>
       </c>
       <c r="B318" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C318" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D318" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E318" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F318">
         <v>349.81</v>
@@ -9439,16 +9451,16 @@
         <v>16</v>
       </c>
       <c r="B319" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C319" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D319" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E319" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F319">
         <v>0.018</v>
@@ -9462,16 +9474,16 @@
         <v>16</v>
       </c>
       <c r="B320" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C320" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D320" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E320" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F320">
         <v>0.3636</v>
@@ -9485,16 +9497,16 @@
         <v>16</v>
       </c>
       <c r="B321" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C321" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D321" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E321" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F321">
         <v>0.3384</v>
@@ -9508,16 +9520,16 @@
         <v>16</v>
       </c>
       <c r="B322" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C322" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D322" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E322" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F322">
         <v>0.007200000000000001</v>
@@ -9531,16 +9543,16 @@
         <v>16</v>
       </c>
       <c r="B323" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C323" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D323" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E323" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F323">
         <v>0.167472</v>
@@ -9554,16 +9566,16 @@
         <v>16</v>
       </c>
       <c r="B324" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C324" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D324" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E324" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F324">
         <v>1.758456</v>
@@ -9577,16 +9589,16 @@
         <v>16</v>
       </c>
       <c r="B325" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C325" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D325" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E325" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F325">
         <v>0.334944</v>
@@ -9600,16 +9612,16 @@
         <v>16</v>
       </c>
       <c r="B326" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C326" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D326" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E326" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F326">
         <v>1.214172</v>
@@ -9623,16 +9635,16 @@
         <v>16</v>
       </c>
       <c r="B327" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C327" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D327" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E327" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F327">
         <v>0.8373600000000001</v>
@@ -9646,16 +9658,16 @@
         <v>16</v>
       </c>
       <c r="B328" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C328" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D328" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E328" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F328">
         <v>2.0975868</v>
@@ -9669,16 +9681,16 @@
         <v>16</v>
       </c>
       <c r="B329" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D329" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E329" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F329">
         <v>0.167472</v>
@@ -9692,16 +9704,16 @@
         <v>16</v>
       </c>
       <c r="B330" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D330" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E330" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F330">
         <v>0.9755244000000001</v>
@@ -9715,16 +9727,16 @@
         <v>16</v>
       </c>
       <c r="B331" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D331" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E331" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F331">
         <v>0.0083736</v>
@@ -9738,16 +9750,16 @@
         <v>16</v>
       </c>
       <c r="B332" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D332" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E332" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F332">
         <v>0.1004832</v>
@@ -9761,16 +9773,16 @@
         <v>16</v>
       </c>
       <c r="B333" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D333" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E333" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F333">
         <v>0.0167472</v>
@@ -9784,16 +9796,16 @@
         <v>16</v>
       </c>
       <c r="B334" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D334" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E334" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F334">
         <v>0.083736</v>
@@ -9807,16 +9819,16 @@
         <v>16</v>
       </c>
       <c r="B335" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D335" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E335" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F335">
         <v>0.20934</v>
@@ -9830,16 +9842,16 @@
         <v>16</v>
       </c>
       <c r="B336" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C336" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D336" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E336" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G336">
         <v>0.334944</v>
@@ -9850,16 +9862,16 @@
         <v>16</v>
       </c>
       <c r="B337" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D337" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E337" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F337">
         <v>0.083736</v>
@@ -9873,16 +9885,16 @@
         <v>16</v>
       </c>
       <c r="B338" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D338" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E338" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F338">
         <v>0.5149764000000001</v>
@@ -9896,16 +9908,16 @@
         <v>16</v>
       </c>
       <c r="B339" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D339" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E339" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F339">
         <v>0.020934</v>
@@ -9919,16 +9931,16 @@
         <v>16</v>
       </c>
       <c r="B340" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D340" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E340" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F340">
         <v>0.0167472</v>
@@ -9942,16 +9954,16 @@
         <v>16</v>
       </c>
       <c r="B341" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D341" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E341" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F341">
         <v>0.8712000000000001</v>
@@ -9965,16 +9977,16 @@
         <v>16</v>
       </c>
       <c r="B342" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C342" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D342" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E342" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F342">
         <v>0.2376</v>
@@ -9988,16 +10000,16 @@
         <v>16</v>
       </c>
       <c r="B343" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D343" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E343" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F343">
         <v>0.3852</v>
@@ -10011,16 +10023,16 @@
         <v>16</v>
       </c>
       <c r="B344" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D344" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E344" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G344">
         <v>0.1152</v>
@@ -10031,16 +10043,16 @@
         <v>16</v>
       </c>
       <c r="B345" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C345" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D345" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E345" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F345">
         <v>0.0252</v>
@@ -10054,16 +10066,16 @@
         <v>16</v>
       </c>
       <c r="B346" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C346" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D346" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E346" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F346">
         <v>0.2232</v>
@@ -10077,13 +10089,13 @@
         <v>16</v>
       </c>
       <c r="B347" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C347" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D347" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F347">
         <v>0.4650698602794411</v>
@@ -10097,16 +10109,16 @@
         <v>17</v>
       </c>
       <c r="B348" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C348" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D348" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E348" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G348">
         <v>673</v>
@@ -10120,16 +10132,16 @@
         <v>17</v>
       </c>
       <c r="B349" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C349" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D349" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E349" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G349">
         <v>466.9</v>
@@ -10143,25 +10155,25 @@
         <v>18</v>
       </c>
       <c r="B350" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C350" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D350" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E350" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G350">
-        <v>505</v>
+        <v>165.5019897</v>
       </c>
       <c r="H350">
-        <v>619.6</v>
+        <v>202.7993398</v>
       </c>
       <c r="I350">
-        <v>815.1</v>
+        <v>249.9350027</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -10169,22 +10181,25 @@
         <v>18</v>
       </c>
       <c r="B351" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C351" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D351" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E351" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G351">
+        <v>1.094399999870668</v>
       </c>
       <c r="H351">
-        <v>1.6624188</v>
+        <v>1.426083310330814</v>
       </c>
       <c r="I351">
-        <v>2.180916</v>
+        <v>1.870144585093482</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -10192,22 +10207,25 @@
         <v>18</v>
       </c>
       <c r="B352" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C352" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D352" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="E352" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G352">
+        <v>0.44130351024</v>
       </c>
       <c r="H352">
-        <v>0.000558</v>
+        <v>0.4960139817600001</v>
       </c>
       <c r="I352">
-        <v>0.0005040000000000001</v>
+        <v>0.6044195149200001</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -10215,22 +10233,25 @@
         <v>18</v>
       </c>
       <c r="B353" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C353" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D353" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E353" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G353">
+        <v>0.2469763345499996</v>
       </c>
       <c r="H353">
-        <v>0.4987116000000001</v>
+        <v>0.3386518022243772</v>
       </c>
       <c r="I353">
-        <v>0.6000408</v>
+        <v>0.3493779998264712</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -10238,22 +10259,25 @@
         <v>18</v>
       </c>
       <c r="B354" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C354" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D354" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E354" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G354">
+        <v>0.2420614297359684</v>
       </c>
       <c r="H354">
-        <v>0.4324068</v>
+        <v>0.2289678200885326</v>
       </c>
       <c r="I354">
-        <v>0.531828</v>
+        <v>0.2467241304962411</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -10261,22 +10285,25 @@
         <v>18</v>
       </c>
       <c r="B355" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C355" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D355" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E355" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G355">
+        <v>0.004128076485000001</v>
       </c>
       <c r="H355">
-        <v>0.03105</v>
+        <v>0.006439052163167929</v>
       </c>
       <c r="I355">
-        <v>0.0294588</v>
+        <v>0.003050077340447964</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -10284,22 +10311,25 @@
         <v>18</v>
       </c>
       <c r="B356" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C356" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D356" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E356" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G356">
+        <v>0.1111778835886998</v>
       </c>
       <c r="H356">
-        <v>0.2939544</v>
+        <v>0.2776408768970338</v>
       </c>
       <c r="I356">
-        <v>0.2911428</v>
+        <v>0.5756325714603241</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -10307,22 +10337,25 @@
         <v>18</v>
       </c>
       <c r="B357" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C357" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D357" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="E357" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G357">
+        <v>0.048752765271</v>
       </c>
       <c r="H357">
-        <v>0.007448400000000001</v>
+        <v>0.07836977719770229</v>
       </c>
       <c r="I357">
-        <v>0.0170136</v>
+        <v>0.09094029104999772</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -10330,22 +10363,25 @@
         <v>18</v>
       </c>
       <c r="B358" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C358" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D358" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E358" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G358">
+        <v>0.03658716835683408</v>
       </c>
       <c r="H358">
-        <v>0.3982896</v>
+        <v>0.09136793378214036</v>
       </c>
       <c r="I358">
-        <v>0.710928</v>
+        <v>0.1894330520052901</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -10353,22 +10389,25 @@
         <v>18</v>
       </c>
       <c r="B359" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C359" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D359" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E359" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G359">
+        <v>0.07459071523186572</v>
       </c>
       <c r="H359">
-        <v>0.1632528</v>
+        <v>0.1862729431148934</v>
       </c>
       <c r="I359">
-        <v>0.26991</v>
+        <v>0.386199519455034</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -10376,22 +10415,22 @@
         <v>18</v>
       </c>
       <c r="B360" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C360" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D360" t="s">
-        <v>52</v>
-      </c>
-      <c r="E360" t="s">
-        <v>112</v>
+        <v>56</v>
+      </c>
+      <c r="G360">
+        <v>0.1015879784373523</v>
       </c>
       <c r="H360">
-        <v>0.2350368</v>
+        <v>0.1946876980368197</v>
       </c>
       <c r="I360">
-        <v>0.441018</v>
+        <v>0.3078011058869815</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -10399,19 +10438,25 @@
         <v>18</v>
       </c>
       <c r="B361" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C361" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D361" t="s">
-        <v>53</v>
+        <v>102</v>
+      </c>
+      <c r="E361" t="s">
+        <v>116</v>
+      </c>
+      <c r="G361">
+        <v>164.2043373</v>
       </c>
       <c r="H361">
-        <v>0.2395843935354918</v>
+        <v>138.9723719</v>
       </c>
       <c r="I361">
-        <v>0.3259767914032453</v>
+        <v>99.16460402</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -10419,25 +10464,25 @@
         <v>18</v>
       </c>
       <c r="B362" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C362" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D362" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E362" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G362">
-        <v>477.6</v>
+        <v>1.094400000073791</v>
       </c>
       <c r="H362">
-        <v>553</v>
+        <v>1.541883502456704</v>
       </c>
       <c r="I362">
-        <v>686.7</v>
+        <v>1.985944777201061</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -10445,22 +10490,25 @@
         <v>18</v>
       </c>
       <c r="B363" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C363" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D363" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E363" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G363">
+        <v>0.4362499702800001</v>
       </c>
       <c r="H363">
-        <v>1.5107688</v>
+        <v>0.2953319566680001</v>
       </c>
       <c r="I363">
-        <v>1.892034</v>
+        <v>0.141279272784</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -10468,22 +10516,25 @@
         <v>18</v>
       </c>
       <c r="B364" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C364" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D364" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E364" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G364">
+        <v>0.2469763345499996</v>
       </c>
       <c r="H364">
-        <v>0.033912</v>
+        <v>0.418369073316786</v>
       </c>
       <c r="I364">
-        <v>0.04227120000000001</v>
+        <v>0.5018547233809837</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -10491,22 +10542,25 @@
         <v>18</v>
       </c>
       <c r="B365" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C365" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D365" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E365" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G365">
+        <v>0.2420614297359684</v>
       </c>
       <c r="H365">
-        <v>0.286308</v>
+        <v>0.2879099434200644</v>
       </c>
       <c r="I365">
-        <v>0.3241188</v>
+        <v>0.3102371784125435</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -10514,22 +10568,25 @@
         <v>18</v>
       </c>
       <c r="B366" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C366" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D366" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="E366" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G366">
+        <v>0.004128076485000001</v>
       </c>
       <c r="H366">
-        <v>0.3844584</v>
+        <v>0.006439052163167929</v>
       </c>
       <c r="I366">
-        <v>0.3758652</v>
+        <v>0.006349297905448777</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -10537,22 +10594,25 @@
         <v>18</v>
       </c>
       <c r="B367" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C367" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D367" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E367" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G367">
+        <v>0.1162314237518226</v>
       </c>
       <c r="H367">
-        <v>0.0468216</v>
+        <v>0.4554636996909834</v>
       </c>
       <c r="I367">
-        <v>0.0441684</v>
+        <v>0.9352840136680873</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -10560,421 +10620,1222 @@
         <v>18</v>
       </c>
       <c r="B368" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C368" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D368" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E368" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G368">
+        <v>0.048752765271</v>
       </c>
       <c r="H368">
-        <v>0.2981016</v>
+        <v>0.07836977719770229</v>
       </c>
       <c r="I368">
-        <v>0.3659688</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10">
+        <v>0.09094029104999772</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
       <c r="A369" t="s">
         <v>18</v>
       </c>
       <c r="B369" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C369" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D369" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="E369" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G369">
+        <v>0.03825022146396301</v>
       </c>
       <c r="H369">
-        <v>0.0083052</v>
+        <v>0.1498870685708421</v>
       </c>
       <c r="I369">
-        <v>0.01539</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10">
+        <v>0.4090735154729233</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
       <c r="A370" t="s">
         <v>18</v>
       </c>
       <c r="B370" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C370" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D370" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E370" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G370">
+        <v>0.0779812022878596</v>
       </c>
       <c r="H370">
-        <v>0.452862</v>
+        <v>0.3055766311201414</v>
       </c>
       <c r="I370">
-        <v>0.7242516000000001</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10">
+        <v>0.5262104981951641</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
       <c r="A371" t="s">
         <v>18</v>
       </c>
       <c r="B371" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C371" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D371" t="s">
-        <v>51</v>
-      </c>
-      <c r="E371" t="s">
-        <v>112</v>
+        <v>56</v>
+      </c>
+      <c r="G371">
+        <v>0.1062056138011564</v>
       </c>
       <c r="H371">
-        <v>0.1789128</v>
+        <v>0.2953943660239485</v>
       </c>
       <c r="I371">
-        <v>0.2701512</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10">
+        <v>0.470951672174013</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
       <c r="A372" t="s">
         <v>18</v>
       </c>
       <c r="B372" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C372" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D372" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E372" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="G372">
+        <v>164.2043373</v>
       </c>
       <c r="H372">
-        <v>0.2739492</v>
+        <v>178.081947</v>
       </c>
       <c r="I372">
-        <v>0.4541004</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10">
+        <v>225.1220013</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
       <c r="A373" t="s">
         <v>18</v>
       </c>
       <c r="B373" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C373" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D373" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="E373" t="s">
+        <v>115</v>
+      </c>
+      <c r="G373">
+        <v>1.094400000073791</v>
       </c>
       <c r="H373">
-        <v>0.2997559917837858</v>
+        <v>1.541883502387435</v>
       </c>
       <c r="I373">
-        <v>0.3827899498634802</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10">
+        <v>1.985944777296605</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
       <c r="A374" t="s">
         <v>18</v>
       </c>
       <c r="B374" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C374" t="s">
+        <v>41</v>
+      </c>
+      <c r="D374" t="s">
+        <v>48</v>
+      </c>
+      <c r="E374" t="s">
+        <v>115</v>
+      </c>
+      <c r="G374">
+        <v>0.4362499702800001</v>
+      </c>
+      <c r="H374">
+        <v>0.44783945676</v>
+      </c>
+      <c r="I374">
+        <v>0.5993659749600001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>18</v>
+      </c>
+      <c r="B375" t="s">
         <v>38</v>
       </c>
-      <c r="D374" t="s">
-        <v>58</v>
-      </c>
-      <c r="E374" t="s">
-        <v>113</v>
-      </c>
-      <c r="G374">
-        <v>461.9</v>
-      </c>
-      <c r="H374">
-        <v>492.9</v>
-      </c>
-      <c r="I374">
-        <v>541.2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:10">
-      <c r="A375" t="s">
-        <v>19</v>
-      </c>
-      <c r="B375" t="s">
-        <v>20</v>
-      </c>
       <c r="C375" t="s">
+        <v>41</v>
+      </c>
+      <c r="D375" t="s">
+        <v>49</v>
+      </c>
+      <c r="E375" t="s">
+        <v>115</v>
+      </c>
+      <c r="G375">
+        <v>0.2469763345499996</v>
+      </c>
+      <c r="H375">
+        <v>0.2658615731555166</v>
+      </c>
+      <c r="I375">
+        <v>0.1288819449601125</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>18</v>
+      </c>
+      <c r="B376" t="s">
         <v>38</v>
       </c>
-      <c r="D375" t="s">
-        <v>58</v>
-      </c>
-      <c r="E375" t="s">
-        <v>113</v>
-      </c>
-      <c r="G375">
-        <v>397.9</v>
-      </c>
-      <c r="H375">
-        <v>523.2</v>
-      </c>
-      <c r="J375">
-        <v>690.5</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10">
-      <c r="A376" t="s">
-        <v>19</v>
-      </c>
-      <c r="B376" t="s">
-        <v>20</v>
-      </c>
       <c r="C376" t="s">
+        <v>41</v>
+      </c>
+      <c r="D376" t="s">
+        <v>50</v>
+      </c>
+      <c r="E376" t="s">
+        <v>115</v>
+      </c>
+      <c r="G376">
+        <v>0.2420614297359684</v>
+      </c>
+      <c r="H376">
+        <v>0.2879099434200644</v>
+      </c>
+      <c r="I376">
+        <v>0.3102371784125435</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>18</v>
+      </c>
+      <c r="B377" t="s">
         <v>38</v>
       </c>
-      <c r="D376" t="s">
-        <v>59</v>
-      </c>
-      <c r="E376" t="s">
-        <v>112</v>
-      </c>
-      <c r="H376">
-        <v>1.656</v>
-      </c>
-      <c r="J376">
-        <v>2.772</v>
-      </c>
-    </row>
-    <row r="377" spans="1:10">
-      <c r="A377" t="s">
-        <v>19</v>
-      </c>
-      <c r="B377" t="s">
-        <v>20</v>
-      </c>
       <c r="C377" t="s">
+        <v>41</v>
+      </c>
+      <c r="D377" t="s">
+        <v>95</v>
+      </c>
+      <c r="E377" t="s">
+        <v>115</v>
+      </c>
+      <c r="G377">
+        <v>0.004128076485000001</v>
+      </c>
+      <c r="H377">
+        <v>0.006439052163167929</v>
+      </c>
+      <c r="I377">
+        <v>0.003050077340447964</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>18</v>
+      </c>
+      <c r="B378" t="s">
         <v>38</v>
       </c>
-      <c r="D377" t="s">
-        <v>44</v>
-      </c>
-      <c r="E377" t="s">
-        <v>112</v>
-      </c>
-      <c r="J377">
-        <v>0.135</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10">
-      <c r="A378" t="s">
-        <v>19</v>
-      </c>
-      <c r="B378" t="s">
-        <v>20</v>
-      </c>
       <c r="C378" t="s">
+        <v>41</v>
+      </c>
+      <c r="D378" t="s">
+        <v>52</v>
+      </c>
+      <c r="E378" t="s">
+        <v>115</v>
+      </c>
+      <c r="G378">
+        <v>0.1162314237518226</v>
+      </c>
+      <c r="H378">
+        <v>0.4554636996909834</v>
+      </c>
+      <c r="I378">
+        <v>0.8534693105735034</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>18</v>
+      </c>
+      <c r="B379" t="s">
         <v>38</v>
       </c>
-      <c r="D378" t="s">
-        <v>90</v>
-      </c>
-      <c r="E378" t="s">
-        <v>112</v>
-      </c>
-      <c r="J378">
-        <v>0.135</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10">
-      <c r="A379" t="s">
-        <v>19</v>
-      </c>
-      <c r="B379" t="s">
-        <v>25</v>
-      </c>
       <c r="C379" t="s">
+        <v>41</v>
+      </c>
+      <c r="D379" t="s">
+        <v>53</v>
+      </c>
+      <c r="E379" t="s">
+        <v>115</v>
+      </c>
+      <c r="G379">
+        <v>0.048752765271</v>
+      </c>
+      <c r="H379">
+        <v>0.07836977719770229</v>
+      </c>
+      <c r="I379">
+        <v>0.09094029104999772</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>18</v>
+      </c>
+      <c r="B380" t="s">
         <v>38</v>
       </c>
-      <c r="D379" t="s">
-        <v>58</v>
-      </c>
-      <c r="E379" t="s">
-        <v>113</v>
-      </c>
-      <c r="G379">
-        <v>397.2</v>
-      </c>
-      <c r="H379">
-        <v>287.3</v>
-      </c>
-      <c r="J379">
-        <v>131.6</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10">
-      <c r="A380" t="s">
-        <v>19</v>
-      </c>
-      <c r="B380" t="s">
-        <v>25</v>
-      </c>
       <c r="C380" t="s">
+        <v>41</v>
+      </c>
+      <c r="D380" t="s">
+        <v>54</v>
+      </c>
+      <c r="E380" t="s">
+        <v>115</v>
+      </c>
+      <c r="G380">
+        <v>0.03825022146396301</v>
+      </c>
+      <c r="H380">
+        <v>0.1498870685708421</v>
+      </c>
+      <c r="I380">
+        <v>0.3272588123783393</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>18</v>
+      </c>
+      <c r="B381" t="s">
         <v>38</v>
       </c>
-      <c r="D380" t="s">
-        <v>105</v>
-      </c>
-      <c r="E380" t="s">
-        <v>112</v>
-      </c>
-      <c r="J380">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10">
-      <c r="A381" t="s">
-        <v>19</v>
-      </c>
-      <c r="B381" t="s">
-        <v>25</v>
-      </c>
       <c r="C381" t="s">
+        <v>41</v>
+      </c>
+      <c r="D381" t="s">
+        <v>55</v>
+      </c>
+      <c r="E381" t="s">
+        <v>115</v>
+      </c>
+      <c r="G381">
+        <v>0.0779812022878596</v>
+      </c>
+      <c r="H381">
+        <v>0.3055766311201414</v>
+      </c>
+      <c r="I381">
+        <v>0.5262104981951641</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>18</v>
+      </c>
+      <c r="B382" t="s">
         <v>38</v>
       </c>
-      <c r="D381" t="s">
-        <v>44</v>
-      </c>
-      <c r="E381" t="s">
-        <v>112</v>
-      </c>
-      <c r="H381">
-        <v>0.585</v>
-      </c>
-      <c r="I381">
-        <v>1.2069</v>
-      </c>
-      <c r="J381">
-        <v>1.8288</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10">
-      <c r="A382" t="s">
-        <v>19</v>
-      </c>
-      <c r="B382" t="s">
-        <v>25</v>
-      </c>
       <c r="C382" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D382" t="s">
-        <v>49</v>
-      </c>
-      <c r="E382" t="s">
-        <v>112</v>
+        <v>56</v>
+      </c>
+      <c r="G382">
+        <v>0.1062056138011564</v>
       </c>
       <c r="H382">
-        <v>0.585</v>
+        <v>0.2953943660372192</v>
       </c>
       <c r="I382">
-        <v>1.2069</v>
-      </c>
-      <c r="J382">
-        <v>1.8288</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10">
+        <v>0.4297548050330485</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
       <c r="A383" t="s">
         <v>19</v>
       </c>
       <c r="B383" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C383" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D383" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E383" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="G383">
+        <v>505</v>
       </c>
       <c r="H383">
-        <v>0.261</v>
+        <v>619.6</v>
       </c>
       <c r="I383">
-        <v>0.7821</v>
-      </c>
-      <c r="J383">
-        <v>1.3032</v>
-      </c>
-    </row>
-    <row r="384" spans="1:10">
+        <v>815.1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
       <c r="A384" t="s">
         <v>19</v>
       </c>
       <c r="B384" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C384" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D384" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E384" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H384">
-        <v>0.324</v>
+        <v>1.6624188</v>
       </c>
       <c r="I384">
-        <v>0.4248000000000001</v>
-      </c>
-      <c r="J384">
-        <v>0.5256000000000001</v>
-      </c>
-    </row>
-    <row r="385" spans="1:10">
+        <v>2.180916</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
       <c r="A385" t="s">
         <v>19</v>
       </c>
       <c r="B385" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C385" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D385" t="s">
-        <v>53</v>
+        <v>101</v>
+      </c>
+      <c r="E385" t="s">
+        <v>115</v>
       </c>
       <c r="H385">
+        <v>0.000558</v>
+      </c>
+      <c r="I385">
+        <v>0.0005040000000000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>19</v>
+      </c>
+      <c r="B386" t="s">
+        <v>21</v>
+      </c>
+      <c r="C386" t="s">
+        <v>41</v>
+      </c>
+      <c r="D386" t="s">
+        <v>48</v>
+      </c>
+      <c r="E386" t="s">
+        <v>115</v>
+      </c>
+      <c r="H386">
+        <v>0.4987116000000001</v>
+      </c>
+      <c r="I386">
+        <v>0.6000408</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>19</v>
+      </c>
+      <c r="B387" t="s">
+        <v>21</v>
+      </c>
+      <c r="C387" t="s">
+        <v>41</v>
+      </c>
+      <c r="D387" t="s">
+        <v>49</v>
+      </c>
+      <c r="E387" t="s">
+        <v>115</v>
+      </c>
+      <c r="H387">
+        <v>0.4324068</v>
+      </c>
+      <c r="I387">
+        <v>0.531828</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>19</v>
+      </c>
+      <c r="B388" t="s">
+        <v>21</v>
+      </c>
+      <c r="C388" t="s">
+        <v>41</v>
+      </c>
+      <c r="D388" t="s">
+        <v>94</v>
+      </c>
+      <c r="E388" t="s">
+        <v>115</v>
+      </c>
+      <c r="H388">
+        <v>0.03105</v>
+      </c>
+      <c r="I388">
+        <v>0.0294588</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>19</v>
+      </c>
+      <c r="B389" t="s">
+        <v>21</v>
+      </c>
+      <c r="C389" t="s">
+        <v>41</v>
+      </c>
+      <c r="D389" t="s">
+        <v>50</v>
+      </c>
+      <c r="E389" t="s">
+        <v>115</v>
+      </c>
+      <c r="H389">
+        <v>0.2939544</v>
+      </c>
+      <c r="I389">
+        <v>0.2911428</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
+        <v>19</v>
+      </c>
+      <c r="B390" t="s">
+        <v>21</v>
+      </c>
+      <c r="C390" t="s">
+        <v>41</v>
+      </c>
+      <c r="D390" t="s">
+        <v>111</v>
+      </c>
+      <c r="E390" t="s">
+        <v>115</v>
+      </c>
+      <c r="H390">
+        <v>0.007448400000000001</v>
+      </c>
+      <c r="I390">
+        <v>0.0170136</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>19</v>
+      </c>
+      <c r="B391" t="s">
+        <v>21</v>
+      </c>
+      <c r="C391" t="s">
+        <v>41</v>
+      </c>
+      <c r="D391" t="s">
+        <v>52</v>
+      </c>
+      <c r="E391" t="s">
+        <v>115</v>
+      </c>
+      <c r="H391">
+        <v>0.3982896</v>
+      </c>
+      <c r="I391">
+        <v>0.710928</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>19</v>
+      </c>
+      <c r="B392" t="s">
+        <v>21</v>
+      </c>
+      <c r="C392" t="s">
+        <v>41</v>
+      </c>
+      <c r="D392" t="s">
+        <v>54</v>
+      </c>
+      <c r="E392" t="s">
+        <v>115</v>
+      </c>
+      <c r="H392">
+        <v>0.1632528</v>
+      </c>
+      <c r="I392">
+        <v>0.26991</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>19</v>
+      </c>
+      <c r="B393" t="s">
+        <v>21</v>
+      </c>
+      <c r="C393" t="s">
+        <v>41</v>
+      </c>
+      <c r="D393" t="s">
+        <v>55</v>
+      </c>
+      <c r="E393" t="s">
+        <v>115</v>
+      </c>
+      <c r="H393">
+        <v>0.2350368</v>
+      </c>
+      <c r="I393">
+        <v>0.441018</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>19</v>
+      </c>
+      <c r="B394" t="s">
+        <v>21</v>
+      </c>
+      <c r="C394" t="s">
+        <v>41</v>
+      </c>
+      <c r="D394" t="s">
+        <v>56</v>
+      </c>
+      <c r="H394">
+        <v>0.2395843935354918</v>
+      </c>
+      <c r="I394">
+        <v>0.3259767914032453</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>19</v>
+      </c>
+      <c r="B395" t="s">
+        <v>39</v>
+      </c>
+      <c r="C395" t="s">
+        <v>41</v>
+      </c>
+      <c r="D395" t="s">
+        <v>61</v>
+      </c>
+      <c r="E395" t="s">
+        <v>116</v>
+      </c>
+      <c r="G395">
+        <v>477.6</v>
+      </c>
+      <c r="H395">
+        <v>553</v>
+      </c>
+      <c r="I395">
+        <v>686.7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>19</v>
+      </c>
+      <c r="B396" t="s">
+        <v>39</v>
+      </c>
+      <c r="C396" t="s">
+        <v>41</v>
+      </c>
+      <c r="D396" t="s">
+        <v>47</v>
+      </c>
+      <c r="E396" t="s">
+        <v>115</v>
+      </c>
+      <c r="H396">
+        <v>1.5107688</v>
+      </c>
+      <c r="I396">
+        <v>1.892034</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>19</v>
+      </c>
+      <c r="B397" t="s">
+        <v>39</v>
+      </c>
+      <c r="C397" t="s">
+        <v>41</v>
+      </c>
+      <c r="D397" t="s">
+        <v>101</v>
+      </c>
+      <c r="E397" t="s">
+        <v>115</v>
+      </c>
+      <c r="H397">
+        <v>0.033912</v>
+      </c>
+      <c r="I397">
+        <v>0.04227120000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>19</v>
+      </c>
+      <c r="B398" t="s">
+        <v>39</v>
+      </c>
+      <c r="C398" t="s">
+        <v>41</v>
+      </c>
+      <c r="D398" t="s">
+        <v>48</v>
+      </c>
+      <c r="E398" t="s">
+        <v>115</v>
+      </c>
+      <c r="H398">
+        <v>0.286308</v>
+      </c>
+      <c r="I398">
+        <v>0.3241188</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
+        <v>19</v>
+      </c>
+      <c r="B399" t="s">
+        <v>39</v>
+      </c>
+      <c r="C399" t="s">
+        <v>41</v>
+      </c>
+      <c r="D399" t="s">
+        <v>49</v>
+      </c>
+      <c r="E399" t="s">
+        <v>115</v>
+      </c>
+      <c r="H399">
+        <v>0.3844584</v>
+      </c>
+      <c r="I399">
+        <v>0.3758652</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
+        <v>19</v>
+      </c>
+      <c r="B400" t="s">
+        <v>39</v>
+      </c>
+      <c r="C400" t="s">
+        <v>41</v>
+      </c>
+      <c r="D400" t="s">
+        <v>94</v>
+      </c>
+      <c r="E400" t="s">
+        <v>115</v>
+      </c>
+      <c r="H400">
+        <v>0.0468216</v>
+      </c>
+      <c r="I400">
+        <v>0.0441684</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10">
+      <c r="A401" t="s">
+        <v>19</v>
+      </c>
+      <c r="B401" t="s">
+        <v>39</v>
+      </c>
+      <c r="C401" t="s">
+        <v>41</v>
+      </c>
+      <c r="D401" t="s">
+        <v>50</v>
+      </c>
+      <c r="E401" t="s">
+        <v>115</v>
+      </c>
+      <c r="H401">
+        <v>0.2981016</v>
+      </c>
+      <c r="I401">
+        <v>0.3659688</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10">
+      <c r="A402" t="s">
+        <v>19</v>
+      </c>
+      <c r="B402" t="s">
+        <v>39</v>
+      </c>
+      <c r="C402" t="s">
+        <v>41</v>
+      </c>
+      <c r="D402" t="s">
+        <v>111</v>
+      </c>
+      <c r="E402" t="s">
+        <v>115</v>
+      </c>
+      <c r="H402">
+        <v>0.0083052</v>
+      </c>
+      <c r="I402">
+        <v>0.01539</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10">
+      <c r="A403" t="s">
+        <v>19</v>
+      </c>
+      <c r="B403" t="s">
+        <v>39</v>
+      </c>
+      <c r="C403" t="s">
+        <v>41</v>
+      </c>
+      <c r="D403" t="s">
+        <v>52</v>
+      </c>
+      <c r="E403" t="s">
+        <v>115</v>
+      </c>
+      <c r="H403">
+        <v>0.452862</v>
+      </c>
+      <c r="I403">
+        <v>0.7242516000000001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10">
+      <c r="A404" t="s">
+        <v>19</v>
+      </c>
+      <c r="B404" t="s">
+        <v>39</v>
+      </c>
+      <c r="C404" t="s">
+        <v>41</v>
+      </c>
+      <c r="D404" t="s">
+        <v>54</v>
+      </c>
+      <c r="E404" t="s">
+        <v>115</v>
+      </c>
+      <c r="H404">
+        <v>0.1789128</v>
+      </c>
+      <c r="I404">
+        <v>0.2701512</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10">
+      <c r="A405" t="s">
+        <v>19</v>
+      </c>
+      <c r="B405" t="s">
+        <v>39</v>
+      </c>
+      <c r="C405" t="s">
+        <v>41</v>
+      </c>
+      <c r="D405" t="s">
+        <v>55</v>
+      </c>
+      <c r="E405" t="s">
+        <v>115</v>
+      </c>
+      <c r="H405">
+        <v>0.2739492</v>
+      </c>
+      <c r="I405">
+        <v>0.4541004</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10">
+      <c r="A406" t="s">
+        <v>19</v>
+      </c>
+      <c r="B406" t="s">
+        <v>39</v>
+      </c>
+      <c r="C406" t="s">
+        <v>41</v>
+      </c>
+      <c r="D406" t="s">
+        <v>56</v>
+      </c>
+      <c r="H406">
+        <v>0.2997559917837858</v>
+      </c>
+      <c r="I406">
+        <v>0.3827899498634802</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10">
+      <c r="A407" t="s">
+        <v>19</v>
+      </c>
+      <c r="B407" t="s">
+        <v>40</v>
+      </c>
+      <c r="C407" t="s">
+        <v>41</v>
+      </c>
+      <c r="D407" t="s">
+        <v>61</v>
+      </c>
+      <c r="E407" t="s">
+        <v>116</v>
+      </c>
+      <c r="G407">
+        <v>461.9</v>
+      </c>
+      <c r="H407">
+        <v>492.9</v>
+      </c>
+      <c r="I407">
+        <v>541.2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10">
+      <c r="A408" t="s">
+        <v>20</v>
+      </c>
+      <c r="B408" t="s">
+        <v>21</v>
+      </c>
+      <c r="C408" t="s">
+        <v>41</v>
+      </c>
+      <c r="D408" t="s">
+        <v>61</v>
+      </c>
+      <c r="E408" t="s">
+        <v>116</v>
+      </c>
+      <c r="G408">
+        <v>397.9</v>
+      </c>
+      <c r="H408">
+        <v>523.2</v>
+      </c>
+      <c r="J408">
+        <v>690.5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10">
+      <c r="A409" t="s">
+        <v>20</v>
+      </c>
+      <c r="B409" t="s">
+        <v>21</v>
+      </c>
+      <c r="C409" t="s">
+        <v>41</v>
+      </c>
+      <c r="D409" t="s">
+        <v>62</v>
+      </c>
+      <c r="E409" t="s">
+        <v>115</v>
+      </c>
+      <c r="H409">
+        <v>1.656</v>
+      </c>
+      <c r="J409">
+        <v>2.772</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10">
+      <c r="A410" t="s">
+        <v>20</v>
+      </c>
+      <c r="B410" t="s">
+        <v>21</v>
+      </c>
+      <c r="C410" t="s">
+        <v>41</v>
+      </c>
+      <c r="D410" t="s">
+        <v>47</v>
+      </c>
+      <c r="E410" t="s">
+        <v>115</v>
+      </c>
+      <c r="J410">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10">
+      <c r="A411" t="s">
+        <v>20</v>
+      </c>
+      <c r="B411" t="s">
+        <v>21</v>
+      </c>
+      <c r="C411" t="s">
+        <v>41</v>
+      </c>
+      <c r="D411" t="s">
+        <v>93</v>
+      </c>
+      <c r="E411" t="s">
+        <v>115</v>
+      </c>
+      <c r="J411">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10">
+      <c r="A412" t="s">
+        <v>20</v>
+      </c>
+      <c r="B412" t="s">
+        <v>26</v>
+      </c>
+      <c r="C412" t="s">
+        <v>41</v>
+      </c>
+      <c r="D412" t="s">
+        <v>61</v>
+      </c>
+      <c r="E412" t="s">
+        <v>116</v>
+      </c>
+      <c r="G412">
+        <v>397.2</v>
+      </c>
+      <c r="H412">
+        <v>287.3</v>
+      </c>
+      <c r="J412">
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10">
+      <c r="A413" t="s">
+        <v>20</v>
+      </c>
+      <c r="B413" t="s">
+        <v>26</v>
+      </c>
+      <c r="C413" t="s">
+        <v>41</v>
+      </c>
+      <c r="D413" t="s">
+        <v>108</v>
+      </c>
+      <c r="E413" t="s">
+        <v>115</v>
+      </c>
+      <c r="J413">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10">
+      <c r="A414" t="s">
+        <v>20</v>
+      </c>
+      <c r="B414" t="s">
+        <v>26</v>
+      </c>
+      <c r="C414" t="s">
+        <v>41</v>
+      </c>
+      <c r="D414" t="s">
+        <v>47</v>
+      </c>
+      <c r="E414" t="s">
+        <v>115</v>
+      </c>
+      <c r="H414">
+        <v>0.585</v>
+      </c>
+      <c r="I414">
+        <v>1.2069</v>
+      </c>
+      <c r="J414">
+        <v>1.8288</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10">
+      <c r="A415" t="s">
+        <v>20</v>
+      </c>
+      <c r="B415" t="s">
+        <v>26</v>
+      </c>
+      <c r="C415" t="s">
+        <v>41</v>
+      </c>
+      <c r="D415" t="s">
+        <v>52</v>
+      </c>
+      <c r="E415" t="s">
+        <v>115</v>
+      </c>
+      <c r="H415">
+        <v>0.585</v>
+      </c>
+      <c r="I415">
+        <v>1.2069</v>
+      </c>
+      <c r="J415">
+        <v>1.8288</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10">
+      <c r="A416" t="s">
+        <v>20</v>
+      </c>
+      <c r="B416" t="s">
+        <v>26</v>
+      </c>
+      <c r="C416" t="s">
+        <v>41</v>
+      </c>
+      <c r="D416" t="s">
+        <v>54</v>
+      </c>
+      <c r="E416" t="s">
+        <v>115</v>
+      </c>
+      <c r="H416">
+        <v>0.261</v>
+      </c>
+      <c r="I416">
+        <v>0.7821</v>
+      </c>
+      <c r="J416">
+        <v>1.3032</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10">
+      <c r="A417" t="s">
+        <v>20</v>
+      </c>
+      <c r="B417" t="s">
+        <v>26</v>
+      </c>
+      <c r="C417" t="s">
+        <v>41</v>
+      </c>
+      <c r="D417" t="s">
+        <v>55</v>
+      </c>
+      <c r="E417" t="s">
+        <v>115</v>
+      </c>
+      <c r="H417">
+        <v>0.324</v>
+      </c>
+      <c r="I417">
+        <v>0.4248000000000001</v>
+      </c>
+      <c r="J417">
+        <v>0.5256000000000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10">
+      <c r="A418" t="s">
+        <v>20</v>
+      </c>
+      <c r="B418" t="s">
+        <v>26</v>
+      </c>
+      <c r="C418" t="s">
+        <v>41</v>
+      </c>
+      <c r="D418" t="s">
+        <v>56</v>
+      </c>
+      <c r="H418">
         <v>1</v>
       </c>
-      <c r="I385">
+      <c r="I418">
         <v>1</v>
       </c>
-      <c r="J385">
+      <c r="J418">
         <v>1</v>
       </c>
     </row>
@@ -10985,7 +11846,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11006,13 +11867,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11020,16 +11881,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11037,16 +11898,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11054,16 +11915,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11071,16 +11932,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11088,16 +11949,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11105,16 +11966,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11122,16 +11983,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11139,16 +12000,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11156,16 +12017,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11173,16 +12034,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11190,16 +12051,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11207,16 +12068,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -11224,16 +12085,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11241,16 +12102,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -11258,16 +12119,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11275,16 +12136,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11292,16 +12153,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11309,16 +12170,16 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11326,16 +12187,16 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11343,16 +12204,16 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -11360,16 +12221,16 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -11377,16 +12238,16 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -11394,16 +12255,16 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -11411,16 +12272,16 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -11428,16 +12289,67 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data_export.xlsx
+++ b/data_export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="122">
   <si>
     <t>Model</t>
   </si>
@@ -738,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J418"/>
+  <dimension ref="A1:J417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11614,16 +11614,16 @@
         <v>41</v>
       </c>
       <c r="D409" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E409" t="s">
         <v>115</v>
       </c>
+      <c r="G409">
+        <v>1.09764</v>
+      </c>
       <c r="H409">
-        <v>1.656</v>
-      </c>
-      <c r="J409">
-        <v>2.772</v>
+        <v>1.65816</v>
       </c>
     </row>
     <row r="410" spans="1:10">
@@ -11637,13 +11637,16 @@
         <v>41</v>
       </c>
       <c r="D410" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="E410" t="s">
         <v>115</v>
       </c>
-      <c r="J410">
-        <v>0.135</v>
+      <c r="G410">
+        <v>0.6224400000000001</v>
+      </c>
+      <c r="H410">
+        <v>0.9119880000000002</v>
       </c>
     </row>
     <row r="411" spans="1:10">
@@ -11657,13 +11660,16 @@
         <v>41</v>
       </c>
       <c r="D411" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="E411" t="s">
         <v>115</v>
       </c>
-      <c r="J411">
-        <v>0.135</v>
+      <c r="G411">
+        <v>0.4752000000000001</v>
+      </c>
+      <c r="H411">
+        <v>0.7461720000000001</v>
       </c>
     </row>
     <row r="412" spans="1:10">
@@ -11671,25 +11677,19 @@
         <v>20</v>
       </c>
       <c r="B412" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C412" t="s">
         <v>41</v>
       </c>
       <c r="D412" t="s">
-        <v>61</v>
-      </c>
-      <c r="E412" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="G412">
-        <v>397.2</v>
+        <v>0.432928829124303</v>
       </c>
       <c r="H412">
-        <v>287.3</v>
-      </c>
-      <c r="J412">
-        <v>131.6</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="413" spans="1:10">
@@ -11703,13 +11703,19 @@
         <v>41</v>
       </c>
       <c r="D413" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="E413" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="G413">
+        <v>397.2</v>
+      </c>
+      <c r="H413">
+        <v>287.3</v>
       </c>
       <c r="J413">
-        <v>0.036</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="414" spans="1:10">
@@ -11728,14 +11734,11 @@
       <c r="E414" t="s">
         <v>115</v>
       </c>
+      <c r="G414">
+        <v>1.09764</v>
+      </c>
       <c r="H414">
-        <v>0.585</v>
-      </c>
-      <c r="I414">
-        <v>1.2069</v>
-      </c>
-      <c r="J414">
-        <v>1.8288</v>
+        <v>1.70028</v>
       </c>
     </row>
     <row r="415" spans="1:10">
@@ -11749,19 +11752,16 @@
         <v>41</v>
       </c>
       <c r="D415" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="E415" t="s">
         <v>115</v>
       </c>
+      <c r="G415">
+        <v>0.6224400000000001</v>
+      </c>
       <c r="H415">
-        <v>0.585</v>
-      </c>
-      <c r="I415">
-        <v>1.2069</v>
-      </c>
-      <c r="J415">
-        <v>1.8288</v>
+        <v>0.5270868000000001</v>
       </c>
     </row>
     <row r="416" spans="1:10">
@@ -11775,22 +11775,19 @@
         <v>41</v>
       </c>
       <c r="D416" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E416" t="s">
         <v>115</v>
       </c>
+      <c r="G416">
+        <v>0.4752000000000001</v>
+      </c>
       <c r="H416">
-        <v>0.261</v>
-      </c>
-      <c r="I416">
-        <v>0.7821</v>
-      </c>
-      <c r="J416">
-        <v>1.3032</v>
-      </c>
-    </row>
-    <row r="417" spans="1:10">
+        <v>1.1731932</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
       <c r="A417" t="s">
         <v>20</v>
       </c>
@@ -11801,42 +11798,13 @@
         <v>41</v>
       </c>
       <c r="D417" t="s">
-        <v>55</v>
-      </c>
-      <c r="E417" t="s">
-        <v>115</v>
+        <v>56</v>
+      </c>
+      <c r="G417">
+        <v>0.432928829124303</v>
       </c>
       <c r="H417">
-        <v>0.324</v>
-      </c>
-      <c r="I417">
-        <v>0.4248000000000001</v>
-      </c>
-      <c r="J417">
-        <v>0.5256000000000001</v>
-      </c>
-    </row>
-    <row r="418" spans="1:10">
-      <c r="A418" t="s">
-        <v>20</v>
-      </c>
-      <c r="B418" t="s">
-        <v>26</v>
-      </c>
-      <c r="C418" t="s">
-        <v>41</v>
-      </c>
-      <c r="D418" t="s">
-        <v>56</v>
-      </c>
-      <c r="H418">
-        <v>1</v>
-      </c>
-      <c r="I418">
-        <v>1</v>
-      </c>
-      <c r="J418">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12349,7 +12317,7 @@
         <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
